--- a/tesla_data.xlsx
+++ b/tesla_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4609D3A7-779F-4C06-A52A-34FD8C5EBFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E8D66-9E5A-4EF2-AC30-10312842C366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21105" yWindow="0" windowWidth="17400" windowHeight="20985" xr2:uid="{885A433C-E723-4E44-ACD2-B01F549B13D8}"/>
+    <workbookView xWindow="17625" yWindow="1350" windowWidth="16440" windowHeight="15195" xr2:uid="{885A433C-E723-4E44-ACD2-B01F549B13D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6715" uniqueCount="3107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6739" uniqueCount="3107">
   <si>
     <t>CASENR</t>
   </si>
@@ -10133,6 +10133,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10151,47 +10167,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -10209,6 +10189,26 @@
     <dxf>
       <font>
         <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
@@ -10640,8 +10640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E657F5FC-5AAE-4BD7-A16D-54B7454E4108}">
   <dimension ref="A1:EG835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A791" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C828" sqref="C828"/>
+    <sheetView tabSelected="1" topLeftCell="A800" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A810" sqref="A810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10662,11 +10662,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:137" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="18"/>
       <c r="F1" s="3" t="s">
         <v>29</v>
@@ -10758,9 +10758,9 @@
       <c r="AI1" s="3"/>
     </row>
     <row r="2" spans="1:137" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="18"/>
       <c r="F2" s="6" t="s">
         <v>57</v>
@@ -11380,7 +11380,7 @@
       <c r="O6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="32" t="s">
         <v>1224</v>
       </c>
       <c r="Q6" s="12">
@@ -11466,7 +11466,7 @@
       <c r="I7" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="33">
         <v>1</v>
       </c>
       <c r="K7" s="28">
@@ -11564,7 +11564,7 @@
       <c r="I8" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="33">
         <v>1</v>
       </c>
       <c r="K8" s="28">
@@ -11666,7 +11666,7 @@
       <c r="I9" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="33">
         <v>1</v>
       </c>
       <c r="K9" s="28">
@@ -11764,7 +11764,7 @@
       <c r="I10" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="33">
         <v>1</v>
       </c>
       <c r="K10" s="28">
@@ -11866,7 +11866,7 @@
       <c r="I11" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="33">
         <v>1</v>
       </c>
       <c r="K11" s="28">
@@ -11968,7 +11968,7 @@
       <c r="I12" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="33">
         <v>1</v>
       </c>
       <c r="K12" s="28">
@@ -12067,7 +12067,7 @@
       <c r="I13" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="33">
         <v>1</v>
       </c>
       <c r="K13" s="28">
@@ -12166,7 +12166,7 @@
       <c r="I14" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="33">
         <v>1</v>
       </c>
       <c r="K14" s="28">
@@ -12261,7 +12261,7 @@
       <c r="I15" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="33">
         <v>1</v>
       </c>
       <c r="K15" s="28">
@@ -12360,7 +12360,7 @@
       <c r="I16" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="33">
         <v>1</v>
       </c>
       <c r="K16" s="28">
@@ -12459,7 +12459,7 @@
       <c r="I17" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="33">
         <v>1</v>
       </c>
       <c r="K17" s="28">
@@ -12558,7 +12558,7 @@
       <c r="I18" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="33">
         <v>1</v>
       </c>
       <c r="K18" s="28">
@@ -12657,7 +12657,7 @@
       <c r="I19" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="33">
         <v>1</v>
       </c>
       <c r="K19" s="28">
@@ -12756,7 +12756,7 @@
       <c r="I20" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="33">
         <v>1</v>
       </c>
       <c r="K20" s="28">
@@ -12855,7 +12855,7 @@
       <c r="I21" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="33">
         <v>1</v>
       </c>
       <c r="K21" s="28">
@@ -12954,7 +12954,7 @@
       <c r="I22" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="33">
         <v>1</v>
       </c>
       <c r="K22" s="28">
@@ -13049,7 +13049,7 @@
       <c r="I23" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="33">
         <v>1</v>
       </c>
       <c r="K23" s="28">
@@ -13148,7 +13148,7 @@
       <c r="I24" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="33">
         <v>1</v>
       </c>
       <c r="K24" s="28">
@@ -13247,7 +13247,7 @@
       <c r="I25" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="33">
         <v>1</v>
       </c>
       <c r="K25" s="28">
@@ -13346,7 +13346,7 @@
       <c r="I26" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="33">
         <v>1</v>
       </c>
       <c r="K26" s="28">
@@ -13445,7 +13445,7 @@
       <c r="I27" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="33">
         <v>1</v>
       </c>
       <c r="K27" s="28">
@@ -13544,7 +13544,7 @@
       <c r="I28" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="33">
         <v>1</v>
       </c>
       <c r="K28" s="28">
@@ -13639,7 +13639,7 @@
       <c r="I29" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="33">
         <v>1</v>
       </c>
       <c r="K29" s="28">
@@ -13738,7 +13738,7 @@
       <c r="I30" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="33">
         <v>2</v>
       </c>
       <c r="K30" s="28">
@@ -13837,7 +13837,7 @@
       <c r="I31" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="33">
         <v>2</v>
       </c>
       <c r="K31" s="28">
@@ -13936,7 +13936,7 @@
       <c r="I32" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="33">
         <v>2</v>
       </c>
       <c r="K32" s="28">
@@ -14031,7 +14031,7 @@
       <c r="I33" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="33">
         <v>2</v>
       </c>
       <c r="K33" s="28">
@@ -14130,7 +14130,7 @@
       <c r="I34" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="33">
         <v>2</v>
       </c>
       <c r="K34" s="28">
@@ -14225,7 +14225,7 @@
       <c r="I35" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="33">
         <v>2</v>
       </c>
       <c r="K35" s="28">
@@ -14324,7 +14324,7 @@
       <c r="I36" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J36" s="39">
+      <c r="J36" s="33">
         <v>2</v>
       </c>
       <c r="K36" s="28">
@@ -14423,7 +14423,7 @@
       <c r="I37" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="33">
         <v>2</v>
       </c>
       <c r="K37" s="28">
@@ -14522,7 +14522,7 @@
       <c r="I38" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="33">
         <v>2</v>
       </c>
       <c r="K38" s="28">
@@ -14617,7 +14617,7 @@
       <c r="I39" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="33">
         <v>2</v>
       </c>
       <c r="K39" s="28">
@@ -14716,7 +14716,7 @@
       <c r="I40" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J40" s="39">
+      <c r="J40" s="33">
         <v>2</v>
       </c>
       <c r="K40" s="28">
@@ -14815,7 +14815,7 @@
       <c r="I41" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J41" s="39">
+      <c r="J41" s="33">
         <v>2</v>
       </c>
       <c r="K41" s="28">
@@ -14914,7 +14914,7 @@
       <c r="I42" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J42" s="39">
+      <c r="J42" s="33">
         <v>2</v>
       </c>
       <c r="K42" s="28">
@@ -15013,7 +15013,7 @@
       <c r="I43" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J43" s="39">
+      <c r="J43" s="33">
         <v>2</v>
       </c>
       <c r="K43" s="28">
@@ -15112,7 +15112,7 @@
       <c r="I44" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J44" s="39">
+      <c r="J44" s="33">
         <v>2</v>
       </c>
       <c r="K44" s="28">
@@ -15211,7 +15211,7 @@
       <c r="I45" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J45" s="39">
+      <c r="J45" s="33">
         <v>2</v>
       </c>
       <c r="K45" s="28">
@@ -15310,7 +15310,7 @@
       <c r="I46" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J46" s="39">
+      <c r="J46" s="33">
         <v>2</v>
       </c>
       <c r="K46" s="28">
@@ -15409,7 +15409,7 @@
       <c r="I47" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J47" s="39">
+      <c r="J47" s="33">
         <v>2</v>
       </c>
       <c r="K47" s="28">
@@ -15508,7 +15508,7 @@
       <c r="I48" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J48" s="39">
+      <c r="J48" s="33">
         <v>2</v>
       </c>
       <c r="K48" s="28">
@@ -15607,7 +15607,7 @@
       <c r="I49" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J49" s="39">
+      <c r="J49" s="33">
         <v>3</v>
       </c>
       <c r="K49" s="28">
@@ -15706,7 +15706,7 @@
       <c r="I50" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J50" s="39">
+      <c r="J50" s="33">
         <v>3</v>
       </c>
       <c r="K50" s="28">
@@ -15805,7 +15805,7 @@
       <c r="I51" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J51" s="39">
+      <c r="J51" s="33">
         <v>3</v>
       </c>
       <c r="K51" s="28">
@@ -15904,7 +15904,7 @@
       <c r="I52" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J52" s="39">
+      <c r="J52" s="33">
         <v>3</v>
       </c>
       <c r="K52" s="28">
@@ -16003,7 +16003,7 @@
       <c r="I53" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J53" s="39">
+      <c r="J53" s="33">
         <v>3</v>
       </c>
       <c r="K53" s="28">
@@ -16102,7 +16102,7 @@
       <c r="I54" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J54" s="39">
+      <c r="J54" s="33">
         <v>3</v>
       </c>
       <c r="K54" s="28">
@@ -16201,7 +16201,7 @@
       <c r="I55" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J55" s="39">
+      <c r="J55" s="33">
         <v>3</v>
       </c>
       <c r="K55" s="28">
@@ -16300,7 +16300,7 @@
       <c r="I56" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J56" s="39">
+      <c r="J56" s="33">
         <v>3</v>
       </c>
       <c r="K56" s="28">
@@ -16399,7 +16399,7 @@
       <c r="I57" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J57" s="39">
+      <c r="J57" s="33">
         <v>3</v>
       </c>
       <c r="K57" s="28">
@@ -16498,7 +16498,7 @@
       <c r="I58" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J58" s="39">
+      <c r="J58" s="33">
         <v>3</v>
       </c>
       <c r="K58" s="28">
@@ -16597,7 +16597,7 @@
       <c r="I59" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J59" s="39">
+      <c r="J59" s="33">
         <v>3</v>
       </c>
       <c r="K59" s="28">
@@ -16696,7 +16696,7 @@
       <c r="I60" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J60" s="39">
+      <c r="J60" s="33">
         <v>3</v>
       </c>
       <c r="K60" s="28">
@@ -16795,7 +16795,7 @@
       <c r="I61" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J61" s="39">
+      <c r="J61" s="33">
         <v>3</v>
       </c>
       <c r="K61" s="28">
@@ -16894,7 +16894,7 @@
       <c r="I62" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J62" s="39">
+      <c r="J62" s="33">
         <v>3</v>
       </c>
       <c r="K62" s="28">
@@ -16993,7 +16993,7 @@
       <c r="I63" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J63" s="39">
+      <c r="J63" s="33">
         <v>3</v>
       </c>
       <c r="K63" s="28">
@@ -17092,7 +17092,7 @@
       <c r="I64" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J64" s="39">
+      <c r="J64" s="33">
         <v>3</v>
       </c>
       <c r="K64" s="28">
@@ -17191,7 +17191,7 @@
       <c r="I65" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J65" s="39">
+      <c r="J65" s="33">
         <v>3</v>
       </c>
       <c r="K65" s="28">
@@ -17286,7 +17286,7 @@
       <c r="I66" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J66" s="39">
+      <c r="J66" s="33">
         <v>3</v>
       </c>
       <c r="K66" s="28">
@@ -17385,7 +17385,7 @@
       <c r="I67" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J67" s="39">
+      <c r="J67" s="33">
         <v>3</v>
       </c>
       <c r="K67" s="28">
@@ -17484,7 +17484,7 @@
       <c r="I68" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J68" s="39">
+      <c r="J68" s="33">
         <v>3</v>
       </c>
       <c r="K68" s="28">
@@ -17579,7 +17579,7 @@
       <c r="I69" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J69" s="39">
+      <c r="J69" s="33">
         <v>4</v>
       </c>
       <c r="K69" s="28">
@@ -17678,7 +17678,7 @@
       <c r="I70" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J70" s="39">
+      <c r="J70" s="33">
         <v>4</v>
       </c>
       <c r="K70" s="28">
@@ -17777,7 +17777,7 @@
       <c r="I71" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J71" s="39">
+      <c r="J71" s="33">
         <v>4</v>
       </c>
       <c r="K71" s="28">
@@ -17876,7 +17876,7 @@
       <c r="I72" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J72" s="39">
+      <c r="J72" s="33">
         <v>4</v>
       </c>
       <c r="K72" s="28">
@@ -17975,7 +17975,7 @@
       <c r="I73" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J73" s="39">
+      <c r="J73" s="33">
         <v>4</v>
       </c>
       <c r="K73" s="28">
@@ -18074,7 +18074,7 @@
       <c r="I74" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J74" s="39">
+      <c r="J74" s="33">
         <v>4</v>
       </c>
       <c r="K74" s="28">
@@ -18173,7 +18173,7 @@
       <c r="I75" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J75" s="39">
+      <c r="J75" s="33">
         <v>4</v>
       </c>
       <c r="K75" s="28">
@@ -18272,7 +18272,7 @@
       <c r="I76" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J76" s="39">
+      <c r="J76" s="33">
         <v>4</v>
       </c>
       <c r="K76" s="28">
@@ -18371,7 +18371,7 @@
       <c r="I77" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J77" s="39">
+      <c r="J77" s="33">
         <v>4</v>
       </c>
       <c r="K77" s="28">
@@ -18466,7 +18466,7 @@
       <c r="I78" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J78" s="39">
+      <c r="J78" s="33">
         <v>4</v>
       </c>
       <c r="K78" s="28">
@@ -18565,7 +18565,7 @@
       <c r="I79" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J79" s="39">
+      <c r="J79" s="33">
         <v>4</v>
       </c>
       <c r="K79" s="28">
@@ -18664,7 +18664,7 @@
       <c r="I80" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J80" s="39">
+      <c r="J80" s="33">
         <v>4</v>
       </c>
       <c r="K80" s="28">
@@ -18763,7 +18763,7 @@
       <c r="I81" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J81" s="39">
+      <c r="J81" s="33">
         <v>4</v>
       </c>
       <c r="K81" s="28">
@@ -18862,7 +18862,7 @@
       <c r="I82" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J82" s="39">
+      <c r="J82" s="33">
         <v>4</v>
       </c>
       <c r="K82" s="28">
@@ -18961,7 +18961,7 @@
       <c r="I83" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J83" s="39">
+      <c r="J83" s="33">
         <v>4</v>
       </c>
       <c r="K83" s="28">
@@ -19060,7 +19060,7 @@
       <c r="I84" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J84" s="39">
+      <c r="J84" s="33">
         <v>5</v>
       </c>
       <c r="K84" s="28">
@@ -19159,7 +19159,7 @@
       <c r="I85" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J85" s="39">
+      <c r="J85" s="33">
         <v>5</v>
       </c>
       <c r="K85" s="28">
@@ -19258,7 +19258,7 @@
       <c r="I86" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J86" s="39">
+      <c r="J86" s="33">
         <v>5</v>
       </c>
       <c r="K86" s="28">
@@ -19353,7 +19353,7 @@
       <c r="I87" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J87" s="39">
+      <c r="J87" s="33">
         <v>5</v>
       </c>
       <c r="K87" s="28">
@@ -19452,7 +19452,7 @@
       <c r="I88" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J88" s="39">
+      <c r="J88" s="33">
         <v>5</v>
       </c>
       <c r="K88" s="28">
@@ -19547,7 +19547,7 @@
       <c r="I89" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J89" s="39">
+      <c r="J89" s="33">
         <v>5</v>
       </c>
       <c r="K89" s="28">
@@ -19646,7 +19646,7 @@
       <c r="I90" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J90" s="39">
+      <c r="J90" s="33">
         <v>5</v>
       </c>
       <c r="K90" s="28">
@@ -19745,7 +19745,7 @@
       <c r="I91" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J91" s="39">
+      <c r="J91" s="33">
         <v>6</v>
       </c>
       <c r="K91" s="28">
@@ -19844,7 +19844,7 @@
       <c r="I92" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J92" s="39">
+      <c r="J92" s="33">
         <v>6</v>
       </c>
       <c r="K92" s="28">
@@ -19939,7 +19939,7 @@
       <c r="I93" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J93" s="39">
+      <c r="J93" s="33">
         <v>6</v>
       </c>
       <c r="K93" s="28">
@@ -20038,7 +20038,7 @@
       <c r="I94" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J94" s="39">
+      <c r="J94" s="33">
         <v>6</v>
       </c>
       <c r="K94" s="28">
@@ -20137,7 +20137,7 @@
       <c r="I95" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J95" s="39">
+      <c r="J95" s="33">
         <v>6</v>
       </c>
       <c r="K95" s="28">
@@ -20236,7 +20236,7 @@
       <c r="I96" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J96" s="39">
+      <c r="J96" s="33">
         <v>6</v>
       </c>
       <c r="K96" s="28">
@@ -20335,7 +20335,7 @@
       <c r="I97" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J97" s="39">
+      <c r="J97" s="33">
         <v>6</v>
       </c>
       <c r="K97" s="28">
@@ -20434,7 +20434,7 @@
       <c r="I98" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J98" s="39">
+      <c r="J98" s="33">
         <v>6</v>
       </c>
       <c r="K98" s="28">
@@ -20533,7 +20533,7 @@
       <c r="I99" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J99" s="39">
+      <c r="J99" s="33">
         <v>6</v>
       </c>
       <c r="K99" s="28">
@@ -20628,7 +20628,7 @@
       <c r="I100" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J100" s="39">
+      <c r="J100" s="33">
         <v>6</v>
       </c>
       <c r="K100" s="28">
@@ -20727,7 +20727,7 @@
       <c r="I101" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J101" s="39">
+      <c r="J101" s="33">
         <v>6</v>
       </c>
       <c r="K101" s="28">
@@ -20826,7 +20826,7 @@
       <c r="I102" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J102" s="39">
+      <c r="J102" s="33">
         <v>6</v>
       </c>
       <c r="K102" s="28">
@@ -20925,7 +20925,7 @@
       <c r="I103" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J103" s="39">
+      <c r="J103" s="33">
         <v>6</v>
       </c>
       <c r="K103" s="28">
@@ -21024,7 +21024,7 @@
       <c r="I104" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J104" s="39">
+      <c r="J104" s="33">
         <v>6</v>
       </c>
       <c r="K104" s="28">
@@ -21123,7 +21123,7 @@
       <c r="I105" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J105" s="39">
+      <c r="J105" s="33">
         <v>6</v>
       </c>
       <c r="K105" s="28">
@@ -21222,7 +21222,7 @@
       <c r="I106" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J106" s="39">
+      <c r="J106" s="33">
         <v>7</v>
       </c>
       <c r="K106" s="28">
@@ -21321,7 +21321,7 @@
       <c r="I107" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J107" s="39">
+      <c r="J107" s="33">
         <v>7</v>
       </c>
       <c r="K107" s="28">
@@ -21420,7 +21420,7 @@
       <c r="I108" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J108" s="39">
+      <c r="J108" s="33">
         <v>7</v>
       </c>
       <c r="K108" s="28">
@@ -21515,7 +21515,7 @@
       <c r="I109" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J109" s="39">
+      <c r="J109" s="33">
         <v>7</v>
       </c>
       <c r="K109" s="28">
@@ -21614,7 +21614,7 @@
       <c r="I110" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J110" s="39">
+      <c r="J110" s="33">
         <v>7</v>
       </c>
       <c r="K110" s="28">
@@ -21713,7 +21713,7 @@
       <c r="I111" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J111" s="39">
+      <c r="J111" s="33">
         <v>7</v>
       </c>
       <c r="K111" s="28">
@@ -21812,7 +21812,7 @@
       <c r="I112" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J112" s="39">
+      <c r="J112" s="33">
         <v>7</v>
       </c>
       <c r="K112" s="28">
@@ -21907,7 +21907,7 @@
       <c r="I113" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J113" s="39">
+      <c r="J113" s="33">
         <v>7</v>
       </c>
       <c r="K113" s="28">
@@ -22006,7 +22006,7 @@
       <c r="I114" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J114" s="39">
+      <c r="J114" s="33">
         <v>7</v>
       </c>
       <c r="K114" s="28">
@@ -22105,7 +22105,7 @@
       <c r="I115" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J115" s="39">
+      <c r="J115" s="33">
         <v>7</v>
       </c>
       <c r="K115" s="28">
@@ -22204,7 +22204,7 @@
       <c r="I116" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J116" s="39">
+      <c r="J116" s="33">
         <v>7</v>
       </c>
       <c r="K116" s="28">
@@ -22299,7 +22299,7 @@
       <c r="I117" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J117" s="39">
+      <c r="J117" s="33">
         <v>7</v>
       </c>
       <c r="K117" s="28">
@@ -22398,7 +22398,7 @@
       <c r="I118" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J118" s="39">
+      <c r="J118" s="33">
         <v>7</v>
       </c>
       <c r="K118" s="28">
@@ -22497,7 +22497,7 @@
       <c r="I119" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J119" s="39">
+      <c r="J119" s="33">
         <v>7</v>
       </c>
       <c r="K119" s="28">
@@ -22592,7 +22592,7 @@
       <c r="I120" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J120" s="39">
+      <c r="J120" s="33">
         <v>7</v>
       </c>
       <c r="K120" s="28">
@@ -22687,7 +22687,7 @@
       <c r="I121" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J121" s="39">
+      <c r="J121" s="33">
         <v>7</v>
       </c>
       <c r="K121" s="28">
@@ -22782,7 +22782,7 @@
       <c r="I122" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J122" s="39">
+      <c r="J122" s="33">
         <v>7</v>
       </c>
       <c r="K122" s="28">
@@ -22881,7 +22881,7 @@
       <c r="I123" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J123" s="39">
+      <c r="J123" s="33">
         <v>7</v>
       </c>
       <c r="K123" s="28">
@@ -22980,7 +22980,7 @@
       <c r="I124" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J124" s="39">
+      <c r="J124" s="33">
         <v>7</v>
       </c>
       <c r="K124" s="28">
@@ -23079,7 +23079,7 @@
       <c r="I125" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J125" s="39">
+      <c r="J125" s="33">
         <v>7</v>
       </c>
       <c r="K125" s="28">
@@ -23174,7 +23174,7 @@
       <c r="I126" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J126" s="39">
+      <c r="J126" s="33">
         <v>7</v>
       </c>
       <c r="K126" s="28">
@@ -23273,7 +23273,7 @@
       <c r="I127" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J127" s="39">
+      <c r="J127" s="33">
         <v>7</v>
       </c>
       <c r="K127" s="28">
@@ -23372,7 +23372,7 @@
       <c r="I128" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J128" s="39">
+      <c r="J128" s="33">
         <v>7</v>
       </c>
       <c r="K128" s="28">
@@ -23467,7 +23467,7 @@
       <c r="I129" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J129" s="39">
+      <c r="J129" s="33">
         <v>7</v>
       </c>
       <c r="K129" s="28">
@@ -23566,7 +23566,7 @@
       <c r="I130" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J130" s="39">
+      <c r="J130" s="33">
         <v>7</v>
       </c>
       <c r="K130" s="28">
@@ -23665,7 +23665,7 @@
       <c r="I131" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J131" s="39">
+      <c r="J131" s="33">
         <v>7</v>
       </c>
       <c r="K131" s="28">
@@ -23764,7 +23764,7 @@
       <c r="I132" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J132" s="39">
+      <c r="J132" s="33">
         <v>7</v>
       </c>
       <c r="K132" s="28">
@@ -23863,7 +23863,7 @@
       <c r="I133" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J133" s="39">
+      <c r="J133" s="33">
         <v>7</v>
       </c>
       <c r="K133" s="28">
@@ -23958,7 +23958,7 @@
       <c r="I134" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J134" s="39">
+      <c r="J134" s="33">
         <v>7</v>
       </c>
       <c r="K134" s="28">
@@ -24057,7 +24057,7 @@
       <c r="I135" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J135" s="39">
+      <c r="J135" s="33">
         <v>7</v>
       </c>
       <c r="K135" s="28">
@@ -24156,7 +24156,7 @@
       <c r="I136" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J136" s="39">
+      <c r="J136" s="33">
         <v>7</v>
       </c>
       <c r="K136" s="28">
@@ -24255,7 +24255,7 @@
       <c r="I137" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J137" s="39">
+      <c r="J137" s="33">
         <v>7</v>
       </c>
       <c r="K137" s="28">
@@ -24354,7 +24354,7 @@
       <c r="I138" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J138" s="39">
+      <c r="J138" s="33">
         <v>7</v>
       </c>
       <c r="K138" s="28">
@@ -24453,7 +24453,7 @@
       <c r="I139" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J139" s="39">
+      <c r="J139" s="33">
         <v>7</v>
       </c>
       <c r="K139" s="28">
@@ -24548,7 +24548,7 @@
       <c r="I140" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J140" s="39">
+      <c r="J140" s="33">
         <v>8</v>
       </c>
       <c r="K140" s="28">
@@ -24647,7 +24647,7 @@
       <c r="I141" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J141" s="39">
+      <c r="J141" s="33">
         <v>8</v>
       </c>
       <c r="K141" s="28">
@@ -24746,7 +24746,7 @@
       <c r="I142" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J142" s="39">
+      <c r="J142" s="33">
         <v>8</v>
       </c>
       <c r="K142" s="28">
@@ -24841,7 +24841,7 @@
       <c r="I143" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J143" s="39">
+      <c r="J143" s="33">
         <v>8</v>
       </c>
       <c r="K143" s="28">
@@ -24940,7 +24940,7 @@
       <c r="I144" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J144" s="39">
+      <c r="J144" s="33">
         <v>8</v>
       </c>
       <c r="K144" s="28">
@@ -25035,7 +25035,7 @@
       <c r="I145" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J145" s="39">
+      <c r="J145" s="33">
         <v>8</v>
       </c>
       <c r="K145" s="28">
@@ -25130,7 +25130,7 @@
       <c r="I146" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J146" s="39">
+      <c r="J146" s="33">
         <v>8</v>
       </c>
       <c r="K146" s="28">
@@ -25229,7 +25229,7 @@
       <c r="I147" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J147" s="39">
+      <c r="J147" s="33">
         <v>8</v>
       </c>
       <c r="K147" s="28">
@@ -25328,7 +25328,7 @@
       <c r="I148" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J148" s="39">
+      <c r="J148" s="33">
         <v>8</v>
       </c>
       <c r="K148" s="28">
@@ -25427,7 +25427,7 @@
       <c r="I149" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J149" s="39">
+      <c r="J149" s="33">
         <v>8</v>
       </c>
       <c r="K149" s="28">
@@ -25526,7 +25526,7 @@
       <c r="I150" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J150" s="39">
+      <c r="J150" s="33">
         <v>8</v>
       </c>
       <c r="K150" s="28">
@@ -25625,7 +25625,7 @@
       <c r="I151" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J151" s="39">
+      <c r="J151" s="33">
         <v>8</v>
       </c>
       <c r="K151" s="28">
@@ -25724,7 +25724,7 @@
       <c r="I152" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J152" s="39">
+      <c r="J152" s="33">
         <v>8</v>
       </c>
       <c r="K152" s="28">
@@ -25819,7 +25819,7 @@
       <c r="I153" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J153" s="39">
+      <c r="J153" s="33">
         <v>8</v>
       </c>
       <c r="K153" s="28">
@@ -25918,7 +25918,7 @@
       <c r="I154" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J154" s="39">
+      <c r="J154" s="33">
         <v>8</v>
       </c>
       <c r="K154" s="28">
@@ -26017,7 +26017,7 @@
       <c r="I155" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J155" s="39">
+      <c r="J155" s="33">
         <v>8</v>
       </c>
       <c r="K155" s="28">
@@ -26116,7 +26116,7 @@
       <c r="I156" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J156" s="39">
+      <c r="J156" s="33">
         <v>8</v>
       </c>
       <c r="K156" s="28">
@@ -26215,7 +26215,7 @@
       <c r="I157" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J157" s="39">
+      <c r="J157" s="33">
         <v>8</v>
       </c>
       <c r="K157" s="28">
@@ -26314,7 +26314,7 @@
       <c r="I158" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J158" s="39">
+      <c r="J158" s="33">
         <v>8</v>
       </c>
       <c r="K158" s="28">
@@ -26413,7 +26413,7 @@
       <c r="I159" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J159" s="39">
+      <c r="J159" s="33">
         <v>8</v>
       </c>
       <c r="K159" s="28">
@@ -26512,7 +26512,7 @@
       <c r="I160" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J160" s="39">
+      <c r="J160" s="33">
         <v>8</v>
       </c>
       <c r="K160" s="28">
@@ -26611,7 +26611,7 @@
       <c r="I161" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J161" s="39">
+      <c r="J161" s="33">
         <v>8</v>
       </c>
       <c r="K161" s="28">
@@ -26710,7 +26710,7 @@
       <c r="I162" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J162" s="39">
+      <c r="J162" s="33">
         <v>8</v>
       </c>
       <c r="K162" s="28">
@@ -26809,7 +26809,7 @@
       <c r="I163" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J163" s="39">
+      <c r="J163" s="33">
         <v>8</v>
       </c>
       <c r="K163" s="28">
@@ -26908,7 +26908,7 @@
       <c r="I164" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J164" s="39">
+      <c r="J164" s="33">
         <v>8</v>
       </c>
       <c r="K164" s="28">
@@ -27007,7 +27007,7 @@
       <c r="I165" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J165" s="39">
+      <c r="J165" s="33">
         <v>8</v>
       </c>
       <c r="K165" s="28">
@@ -27106,7 +27106,7 @@
       <c r="I166" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J166" s="39">
+      <c r="J166" s="33">
         <v>8</v>
       </c>
       <c r="K166" s="28">
@@ -27205,7 +27205,7 @@
       <c r="I167" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J167" s="39">
+      <c r="J167" s="33">
         <v>8</v>
       </c>
       <c r="K167" s="28">
@@ -27304,7 +27304,7 @@
       <c r="I168" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J168" s="39">
+      <c r="J168" s="33">
         <v>8</v>
       </c>
       <c r="K168" s="28">
@@ -27403,7 +27403,7 @@
       <c r="I169" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J169" s="39">
+      <c r="J169" s="33">
         <v>8</v>
       </c>
       <c r="K169" s="28">
@@ -27502,7 +27502,7 @@
       <c r="I170" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J170" s="39">
+      <c r="J170" s="33">
         <v>8</v>
       </c>
       <c r="K170" s="28">
@@ -27601,7 +27601,7 @@
       <c r="I171" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J171" s="39">
+      <c r="J171" s="33">
         <v>8</v>
       </c>
       <c r="K171" s="28">
@@ -27700,7 +27700,7 @@
       <c r="I172" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J172" s="39">
+      <c r="J172" s="33">
         <v>8</v>
       </c>
       <c r="K172" s="28">
@@ -27799,7 +27799,7 @@
       <c r="I173" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J173" s="39">
+      <c r="J173" s="33">
         <v>8</v>
       </c>
       <c r="K173" s="28">
@@ -27898,7 +27898,7 @@
       <c r="I174" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J174" s="39">
+      <c r="J174" s="33">
         <v>8</v>
       </c>
       <c r="K174" s="28">
@@ -27993,7 +27993,7 @@
       <c r="I175" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J175" s="39">
+      <c r="J175" s="33">
         <v>8</v>
       </c>
       <c r="K175" s="28">
@@ -28092,7 +28092,7 @@
       <c r="I176" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J176" s="39">
+      <c r="J176" s="33">
         <v>8</v>
       </c>
       <c r="K176" s="28">
@@ -28191,7 +28191,7 @@
       <c r="I177" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J177" s="39">
+      <c r="J177" s="33">
         <v>8</v>
       </c>
       <c r="K177" s="28">
@@ -28286,7 +28286,7 @@
       <c r="I178" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J178" s="39">
+      <c r="J178" s="33">
         <v>8</v>
       </c>
       <c r="K178" s="28">
@@ -28385,7 +28385,7 @@
       <c r="I179" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J179" s="39">
+      <c r="J179" s="33">
         <v>8</v>
       </c>
       <c r="K179" s="28">
@@ -28484,7 +28484,7 @@
       <c r="I180" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J180" s="39">
+      <c r="J180" s="33">
         <v>8</v>
       </c>
       <c r="K180" s="28">
@@ -28583,7 +28583,7 @@
       <c r="I181" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J181" s="39">
+      <c r="J181" s="33">
         <v>8</v>
       </c>
       <c r="K181" s="28">
@@ -28682,7 +28682,7 @@
       <c r="I182" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J182" s="39">
+      <c r="J182" s="33">
         <v>8</v>
       </c>
       <c r="K182" s="28">
@@ -28781,7 +28781,7 @@
       <c r="I183" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J183" s="39">
+      <c r="J183" s="33">
         <v>8</v>
       </c>
       <c r="K183" s="28">
@@ -28880,7 +28880,7 @@
       <c r="I184" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J184" s="39">
+      <c r="J184" s="33">
         <v>8</v>
       </c>
       <c r="K184" s="28">
@@ -28979,7 +28979,7 @@
       <c r="I185" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J185" s="39">
+      <c r="J185" s="33">
         <v>8</v>
       </c>
       <c r="K185" s="28">
@@ -29078,7 +29078,7 @@
       <c r="I186" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J186" s="39">
+      <c r="J186" s="33">
         <v>8</v>
       </c>
       <c r="K186" s="28">
@@ -29177,7 +29177,7 @@
       <c r="I187" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J187" s="39">
+      <c r="J187" s="33">
         <v>8</v>
       </c>
       <c r="K187" s="28">
@@ -29276,7 +29276,7 @@
       <c r="I188" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J188" s="39">
+      <c r="J188" s="33">
         <v>8</v>
       </c>
       <c r="K188" s="28">
@@ -29371,7 +29371,7 @@
       <c r="I189" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J189" s="39">
+      <c r="J189" s="33">
         <v>8</v>
       </c>
       <c r="K189" s="28">
@@ -29470,7 +29470,7 @@
       <c r="I190" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J190" s="39">
+      <c r="J190" s="33">
         <v>8</v>
       </c>
       <c r="K190" s="28">
@@ -29569,7 +29569,7 @@
       <c r="I191" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J191" s="39">
+      <c r="J191" s="33">
         <v>8</v>
       </c>
       <c r="K191" s="28">
@@ -29668,7 +29668,7 @@
       <c r="I192" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J192" s="39">
+      <c r="J192" s="33">
         <v>8</v>
       </c>
       <c r="K192" s="28">
@@ -29767,7 +29767,7 @@
       <c r="I193" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J193" s="39">
+      <c r="J193" s="33">
         <v>8</v>
       </c>
       <c r="K193" s="28">
@@ -29866,7 +29866,7 @@
       <c r="I194" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J194" s="39">
+      <c r="J194" s="33">
         <v>8</v>
       </c>
       <c r="K194" s="28">
@@ -29965,7 +29965,7 @@
       <c r="I195" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J195" s="39">
+      <c r="J195" s="33">
         <v>8</v>
       </c>
       <c r="K195" s="28">
@@ -30060,7 +30060,7 @@
       <c r="I196" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J196" s="39">
+      <c r="J196" s="33">
         <v>8</v>
       </c>
       <c r="K196" s="28">
@@ -30159,7 +30159,7 @@
       <c r="I197" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J197" s="39">
+      <c r="J197" s="33">
         <v>8</v>
       </c>
       <c r="K197" s="28">
@@ -30258,7 +30258,7 @@
       <c r="I198" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J198" s="39">
+      <c r="J198" s="33">
         <v>9</v>
       </c>
       <c r="K198" s="28">
@@ -30357,7 +30357,7 @@
       <c r="I199" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J199" s="39">
+      <c r="J199" s="33">
         <v>9</v>
       </c>
       <c r="K199" s="28">
@@ -30452,7 +30452,7 @@
       <c r="I200" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J200" s="39">
+      <c r="J200" s="33">
         <v>9</v>
       </c>
       <c r="K200" s="28">
@@ -30551,7 +30551,7 @@
       <c r="I201" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J201" s="39">
+      <c r="J201" s="33">
         <v>9</v>
       </c>
       <c r="K201" s="28">
@@ -30650,7 +30650,7 @@
       <c r="I202" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J202" s="39">
+      <c r="J202" s="33">
         <v>9</v>
       </c>
       <c r="K202" s="28">
@@ -30749,7 +30749,7 @@
       <c r="I203" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J203" s="39">
+      <c r="J203" s="33">
         <v>9</v>
       </c>
       <c r="K203" s="28">
@@ -30848,7 +30848,7 @@
       <c r="I204" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J204" s="39">
+      <c r="J204" s="33">
         <v>9</v>
       </c>
       <c r="K204" s="28">
@@ -30943,7 +30943,7 @@
       <c r="I205" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J205" s="39">
+      <c r="J205" s="33">
         <v>9</v>
       </c>
       <c r="K205" s="28">
@@ -31042,7 +31042,7 @@
       <c r="I206" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J206" s="39">
+      <c r="J206" s="33">
         <v>9</v>
       </c>
       <c r="K206" s="28">
@@ -31141,7 +31141,7 @@
       <c r="I207" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J207" s="39">
+      <c r="J207" s="33">
         <v>9</v>
       </c>
       <c r="K207" s="28">
@@ -31240,7 +31240,7 @@
       <c r="I208" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J208" s="39">
+      <c r="J208" s="33">
         <v>9</v>
       </c>
       <c r="K208" s="28">
@@ -31339,7 +31339,7 @@
       <c r="I209" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J209" s="39">
+      <c r="J209" s="33">
         <v>9</v>
       </c>
       <c r="K209" s="28">
@@ -31434,7 +31434,7 @@
       <c r="I210" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J210" s="39">
+      <c r="J210" s="33">
         <v>9</v>
       </c>
       <c r="K210" s="28">
@@ -31533,7 +31533,7 @@
       <c r="I211" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J211" s="39">
+      <c r="J211" s="33">
         <v>9</v>
       </c>
       <c r="K211" s="28">
@@ -31632,7 +31632,7 @@
       <c r="I212" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J212" s="39">
+      <c r="J212" s="33">
         <v>9</v>
       </c>
       <c r="K212" s="28">
@@ -31727,7 +31727,7 @@
       <c r="I213" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J213" s="39">
+      <c r="J213" s="33">
         <v>9</v>
       </c>
       <c r="K213" s="28">
@@ -31822,7 +31822,7 @@
       <c r="I214" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J214" s="39">
+      <c r="J214" s="33">
         <v>9</v>
       </c>
       <c r="K214" s="28">
@@ -31921,7 +31921,7 @@
       <c r="I215" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J215" s="39">
+      <c r="J215" s="33">
         <v>9</v>
       </c>
       <c r="K215" s="28">
@@ -32020,7 +32020,7 @@
       <c r="I216" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J216" s="39">
+      <c r="J216" s="33">
         <v>9</v>
       </c>
       <c r="K216" s="28">
@@ -32119,7 +32119,7 @@
       <c r="I217" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J217" s="39">
+      <c r="J217" s="33">
         <v>9</v>
       </c>
       <c r="K217" s="28">
@@ -32218,7 +32218,7 @@
       <c r="I218" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J218" s="39">
+      <c r="J218" s="33">
         <v>9</v>
       </c>
       <c r="K218" s="28">
@@ -32313,7 +32313,7 @@
       <c r="I219" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J219" s="39">
+      <c r="J219" s="33">
         <v>9</v>
       </c>
       <c r="K219" s="28">
@@ -32408,7 +32408,7 @@
       <c r="I220" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J220" s="39">
+      <c r="J220" s="33">
         <v>9</v>
       </c>
       <c r="K220" s="28">
@@ -32507,7 +32507,7 @@
       <c r="I221" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J221" s="39">
+      <c r="J221" s="33">
         <v>9</v>
       </c>
       <c r="K221" s="28">
@@ -32606,7 +32606,7 @@
       <c r="I222" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J222" s="39">
+      <c r="J222" s="33">
         <v>9</v>
       </c>
       <c r="K222" s="28">
@@ -32705,7 +32705,7 @@
       <c r="I223" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J223" s="39">
+      <c r="J223" s="33">
         <v>9</v>
       </c>
       <c r="K223" s="28">
@@ -32804,7 +32804,7 @@
       <c r="I224" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J224" s="39">
+      <c r="J224" s="33">
         <v>9</v>
       </c>
       <c r="K224" s="28">
@@ -32903,7 +32903,7 @@
       <c r="I225" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J225" s="39">
+      <c r="J225" s="33">
         <v>10</v>
       </c>
       <c r="K225" s="28">
@@ -33002,7 +33002,7 @@
       <c r="I226" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J226" s="39">
+      <c r="J226" s="33">
         <v>10</v>
       </c>
       <c r="K226" s="28">
@@ -33101,7 +33101,7 @@
       <c r="I227" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J227" s="39">
+      <c r="J227" s="33">
         <v>10</v>
       </c>
       <c r="K227" s="28">
@@ -33200,7 +33200,7 @@
       <c r="I228" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J228" s="39">
+      <c r="J228" s="33">
         <v>10</v>
       </c>
       <c r="K228" s="28">
@@ -33299,7 +33299,7 @@
       <c r="I229" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J229" s="39">
+      <c r="J229" s="33">
         <v>10</v>
       </c>
       <c r="K229" s="28">
@@ -33398,7 +33398,7 @@
       <c r="I230" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J230" s="39">
+      <c r="J230" s="33">
         <v>10</v>
       </c>
       <c r="K230" s="28">
@@ -33497,7 +33497,7 @@
       <c r="I231" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J231" s="39">
+      <c r="J231" s="33">
         <v>10</v>
       </c>
       <c r="K231" s="28">
@@ -33596,7 +33596,7 @@
       <c r="I232" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J232" s="39">
+      <c r="J232" s="33">
         <v>10</v>
       </c>
       <c r="K232" s="28">
@@ -33695,7 +33695,7 @@
       <c r="I233" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J233" s="39">
+      <c r="J233" s="33">
         <v>10</v>
       </c>
       <c r="K233" s="28">
@@ -33794,7 +33794,7 @@
       <c r="I234" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J234" s="39">
+      <c r="J234" s="33">
         <v>10</v>
       </c>
       <c r="K234" s="28">
@@ -33893,7 +33893,7 @@
       <c r="I235" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J235" s="39">
+      <c r="J235" s="33">
         <v>10</v>
       </c>
       <c r="K235" s="28">
@@ -33988,7 +33988,7 @@
       <c r="I236" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J236" s="39">
+      <c r="J236" s="33">
         <v>11</v>
       </c>
       <c r="K236" s="28">
@@ -34087,7 +34087,7 @@
       <c r="I237" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J237" s="39">
+      <c r="J237" s="33">
         <v>12</v>
       </c>
       <c r="K237" s="28">
@@ -34186,7 +34186,7 @@
       <c r="I238" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J238" s="39">
+      <c r="J238" s="33">
         <v>12</v>
       </c>
       <c r="K238" s="28">
@@ -34281,7 +34281,7 @@
       <c r="I239" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J239" s="39">
+      <c r="J239" s="33">
         <v>12</v>
       </c>
       <c r="K239" s="28">
@@ -34380,7 +34380,7 @@
       <c r="I240" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J240" s="39">
+      <c r="J240" s="33">
         <v>12</v>
       </c>
       <c r="K240" s="28">
@@ -34479,7 +34479,7 @@
       <c r="I241" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J241" s="39">
+      <c r="J241" s="33">
         <v>12</v>
       </c>
       <c r="K241" s="28">
@@ -34578,7 +34578,7 @@
       <c r="I242" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J242" s="39">
+      <c r="J242" s="33">
         <v>12</v>
       </c>
       <c r="K242" s="28">
@@ -34677,7 +34677,7 @@
       <c r="I243" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J243" s="39">
+      <c r="J243" s="33">
         <v>12</v>
       </c>
       <c r="K243" s="28">
@@ -34776,7 +34776,7 @@
       <c r="I244" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J244" s="39">
+      <c r="J244" s="33">
         <v>12</v>
       </c>
       <c r="K244" s="28">
@@ -34875,7 +34875,7 @@
       <c r="I245" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J245" s="39">
+      <c r="J245" s="33">
         <v>12</v>
       </c>
       <c r="K245" s="28">
@@ -34974,7 +34974,7 @@
       <c r="I246" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J246" s="39">
+      <c r="J246" s="33">
         <v>12</v>
       </c>
       <c r="K246" s="28">
@@ -35073,7 +35073,7 @@
       <c r="I247" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J247" s="39">
+      <c r="J247" s="33">
         <v>12</v>
       </c>
       <c r="K247" s="28">
@@ -35172,7 +35172,7 @@
       <c r="I248" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J248" s="39">
+      <c r="J248" s="33">
         <v>12</v>
       </c>
       <c r="K248" s="28">
@@ -35271,7 +35271,7 @@
       <c r="I249" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J249" s="39">
+      <c r="J249" s="33">
         <v>12</v>
       </c>
       <c r="K249" s="28">
@@ -35370,7 +35370,7 @@
       <c r="I250" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J250" s="39">
+      <c r="J250" s="33">
         <v>12</v>
       </c>
       <c r="K250" s="28">
@@ -35469,7 +35469,7 @@
       <c r="I251" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J251" s="39">
+      <c r="J251" s="33">
         <v>12</v>
       </c>
       <c r="K251" s="28">
@@ -35568,7 +35568,7 @@
       <c r="I252" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J252" s="39">
+      <c r="J252" s="33">
         <v>12</v>
       </c>
       <c r="K252" s="28">
@@ -35667,7 +35667,7 @@
       <c r="I253" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J253" s="39">
+      <c r="J253" s="33">
         <v>12</v>
       </c>
       <c r="K253" s="28">
@@ -35762,7 +35762,7 @@
       <c r="I254" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J254" s="39">
+      <c r="J254" s="33">
         <v>12</v>
       </c>
       <c r="K254" s="28">
@@ -35857,7 +35857,7 @@
       <c r="I255" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J255" s="39">
+      <c r="J255" s="33">
         <v>12</v>
       </c>
       <c r="K255" s="28">
@@ -35952,7 +35952,7 @@
       <c r="I256" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J256" s="39">
+      <c r="J256" s="33">
         <v>12</v>
       </c>
       <c r="K256" s="28">
@@ -36051,7 +36051,7 @@
       <c r="I257" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J257" s="39">
+      <c r="J257" s="33">
         <v>12</v>
       </c>
       <c r="K257" s="28">
@@ -36150,7 +36150,7 @@
       <c r="I258" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J258" s="39">
+      <c r="J258" s="33">
         <v>12</v>
       </c>
       <c r="K258" s="28">
@@ -36249,7 +36249,7 @@
       <c r="I259" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J259" s="39">
+      <c r="J259" s="33">
         <v>12</v>
       </c>
       <c r="K259" s="28">
@@ -36344,7 +36344,7 @@
       <c r="I260" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J260" s="39">
+      <c r="J260" s="33">
         <v>12</v>
       </c>
       <c r="K260" s="28">
@@ -36443,7 +36443,7 @@
       <c r="I261" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J261" s="39">
+      <c r="J261" s="33">
         <v>12</v>
       </c>
       <c r="K261" s="28">
@@ -36542,7 +36542,7 @@
       <c r="I262" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J262" s="39">
+      <c r="J262" s="33">
         <v>12</v>
       </c>
       <c r="K262" s="28">
@@ -36641,7 +36641,7 @@
       <c r="I263" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J263" s="39">
+      <c r="J263" s="33">
         <v>12</v>
       </c>
       <c r="K263" s="28">
@@ -36736,7 +36736,7 @@
       <c r="I264" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J264" s="39">
+      <c r="J264" s="33">
         <v>12</v>
       </c>
       <c r="K264" s="28">
@@ -36851,7 +36851,7 @@
       <c r="O265" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P265" s="38" t="s">
+      <c r="P265" s="32" t="s">
         <v>1243</v>
       </c>
       <c r="Q265" s="12">
@@ -36952,7 +36952,7 @@
       <c r="O266" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P266" s="38" t="s">
+      <c r="P266" s="32" t="s">
         <v>1250</v>
       </c>
       <c r="Q266" s="12">
@@ -37053,7 +37053,7 @@
       <c r="O267" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P267" s="38" t="s">
+      <c r="P267" s="32" t="s">
         <v>1229</v>
       </c>
       <c r="Q267" s="12">
@@ -37154,7 +37154,7 @@
       <c r="O268" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P268" s="38" t="s">
+      <c r="P268" s="32" t="s">
         <v>1234</v>
       </c>
       <c r="Q268" s="12">
@@ -37255,7 +37255,7 @@
       <c r="O269" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P269" s="38" t="s">
+      <c r="P269" s="32" t="s">
         <v>1254</v>
       </c>
       <c r="Q269" s="12">
@@ -37356,7 +37356,7 @@
       <c r="O270" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P270" s="38" t="s">
+      <c r="P270" s="32" t="s">
         <v>1260</v>
       </c>
       <c r="Q270" s="12">
@@ -37457,7 +37457,7 @@
       <c r="O271" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P271" s="38" t="s">
+      <c r="P271" s="32" t="s">
         <v>1264</v>
       </c>
       <c r="Q271" s="12">
@@ -37558,7 +37558,7 @@
       <c r="O272" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P272" s="38" t="s">
+      <c r="P272" s="32" t="s">
         <v>1268</v>
       </c>
       <c r="Q272" s="12">
@@ -37653,7 +37653,7 @@
       <c r="O273" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P273" s="38" t="s">
+      <c r="P273" s="32" t="s">
         <v>1272</v>
       </c>
       <c r="Q273" s="12">
@@ -38551,7 +38551,7 @@
       <c r="O282" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P282" s="38" t="s">
+      <c r="P282" s="32" t="s">
         <v>1276</v>
       </c>
       <c r="Q282" s="12">
@@ -38652,7 +38652,7 @@
       <c r="O283" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P283" s="38" t="s">
+      <c r="P283" s="32" t="s">
         <v>1280</v>
       </c>
       <c r="Q283" s="12">
@@ -38753,7 +38753,7 @@
       <c r="O284" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P284" s="38" t="s">
+      <c r="P284" s="32" t="s">
         <v>1283</v>
       </c>
       <c r="Q284" s="12">
@@ -38854,7 +38854,7 @@
       <c r="O285" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P285" s="38" t="s">
+      <c r="P285" s="32" t="s">
         <v>1287</v>
       </c>
       <c r="Q285" s="12">
@@ -38949,7 +38949,7 @@
       <c r="O286" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P286" s="40" t="s">
+      <c r="P286" s="34" t="s">
         <v>1293</v>
       </c>
       <c r="Q286" s="12">
@@ -39050,7 +39050,7 @@
       <c r="O287" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P287" s="40" t="s">
+      <c r="P287" s="34" t="s">
         <v>1300</v>
       </c>
       <c r="Q287" s="12">
@@ -39145,7 +39145,7 @@
       <c r="O288" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P288" s="38" t="s">
+      <c r="P288" s="32" t="s">
         <v>1305</v>
       </c>
       <c r="Q288" s="12">
@@ -39240,7 +39240,7 @@
       <c r="O289" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P289" s="38" t="s">
+      <c r="P289" s="32" t="s">
         <v>1309</v>
       </c>
       <c r="Q289" s="12">
@@ -71141,7 +71141,7 @@
       <c r="I615" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J615" s="39">
+      <c r="J615" s="33">
         <v>1</v>
       </c>
       <c r="K615" s="28">
@@ -71203,7 +71203,7 @@
       <c r="I616" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J616" s="39">
+      <c r="J616" s="33">
         <v>2</v>
       </c>
       <c r="K616" s="28">
@@ -71265,7 +71265,7 @@
       <c r="I617" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J617" s="39">
+      <c r="J617" s="33">
         <v>3</v>
       </c>
       <c r="K617" s="28">
@@ -71327,7 +71327,7 @@
       <c r="I618" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J618" s="39">
+      <c r="J618" s="33">
         <v>3</v>
       </c>
       <c r="K618" s="28">
@@ -71389,7 +71389,7 @@
       <c r="I619" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J619" s="39">
+      <c r="J619" s="33">
         <v>3</v>
       </c>
       <c r="K619" s="28">
@@ -71451,7 +71451,7 @@
       <c r="I620" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J620" s="39">
+      <c r="J620" s="33">
         <v>3</v>
       </c>
       <c r="K620" s="28">
@@ -71513,7 +71513,7 @@
       <c r="I621" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J621" s="39">
+      <c r="J621" s="33">
         <v>2</v>
       </c>
       <c r="K621" s="28">
@@ -71575,7 +71575,7 @@
       <c r="I622" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J622" s="39">
+      <c r="J622" s="33">
         <v>2</v>
       </c>
       <c r="K622" s="28">
@@ -71637,7 +71637,7 @@
       <c r="I623" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J623" s="39">
+      <c r="J623" s="33">
         <v>3</v>
       </c>
       <c r="K623" s="28">
@@ -71699,7 +71699,7 @@
       <c r="I624" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J624" s="39">
+      <c r="J624" s="33">
         <v>3</v>
       </c>
       <c r="K624" s="28">
@@ -71761,7 +71761,7 @@
       <c r="I625" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J625" s="39">
+      <c r="J625" s="33">
         <v>3</v>
       </c>
       <c r="K625" s="28">
@@ -71826,7 +71826,7 @@
       <c r="I626" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J626" s="39">
+      <c r="J626" s="33">
         <v>5</v>
       </c>
       <c r="K626" s="28">
@@ -71888,7 +71888,7 @@
       <c r="I627" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J627" s="39">
+      <c r="J627" s="33">
         <v>5</v>
       </c>
       <c r="K627" s="28">
@@ -71951,7 +71951,7 @@
       <c r="I628" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J628" s="39">
+      <c r="J628" s="33">
         <v>6</v>
       </c>
       <c r="K628" s="28">
@@ -72013,7 +72013,7 @@
       <c r="I629" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J629" s="39">
+      <c r="J629" s="33">
         <v>6</v>
       </c>
       <c r="K629" s="28">
@@ -72075,7 +72075,7 @@
       <c r="I630" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J630" s="39">
+      <c r="J630" s="33">
         <v>6</v>
       </c>
       <c r="K630" s="28">
@@ -72137,7 +72137,7 @@
       <c r="I631" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J631" s="39">
+      <c r="J631" s="33">
         <v>6</v>
       </c>
       <c r="K631" s="28">
@@ -72199,7 +72199,7 @@
       <c r="I632" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J632" s="39">
+      <c r="J632" s="33">
         <v>7</v>
       </c>
       <c r="K632" s="28">
@@ -72261,7 +72261,7 @@
       <c r="I633" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J633" s="39">
+      <c r="J633" s="33">
         <v>7</v>
       </c>
       <c r="K633" s="28">
@@ -72323,7 +72323,7 @@
       <c r="I634" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J634" s="39">
+      <c r="J634" s="33">
         <v>7</v>
       </c>
       <c r="K634" s="28">
@@ -72385,7 +72385,7 @@
       <c r="I635" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J635" s="39">
+      <c r="J635" s="33">
         <v>7</v>
       </c>
       <c r="K635" s="28">
@@ -72447,7 +72447,7 @@
       <c r="I636" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J636" s="39">
+      <c r="J636" s="33">
         <v>7</v>
       </c>
       <c r="K636" s="28">
@@ -72509,7 +72509,7 @@
       <c r="I637" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J637" s="39">
+      <c r="J637" s="33">
         <v>7</v>
       </c>
       <c r="K637" s="28">
@@ -72571,7 +72571,7 @@
       <c r="I638" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J638" s="39">
+      <c r="J638" s="33">
         <v>7</v>
       </c>
       <c r="K638" s="28">
@@ -72633,7 +72633,7 @@
       <c r="I639" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J639" s="39">
+      <c r="J639" s="33">
         <v>7</v>
       </c>
       <c r="K639" s="28">
@@ -72695,7 +72695,7 @@
       <c r="I640" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J640" s="39">
+      <c r="J640" s="33">
         <v>7</v>
       </c>
       <c r="K640" s="28">
@@ -72757,7 +72757,7 @@
       <c r="I641" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J641" s="39">
+      <c r="J641" s="33">
         <v>8</v>
       </c>
       <c r="K641" s="28">
@@ -72819,7 +72819,7 @@
       <c r="I642" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J642" s="39">
+      <c r="J642" s="33">
         <v>8</v>
       </c>
       <c r="K642" s="28">
@@ -72881,7 +72881,7 @@
       <c r="I643" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J643" s="39">
+      <c r="J643" s="33">
         <v>8</v>
       </c>
       <c r="K643" s="28">
@@ -72943,7 +72943,7 @@
       <c r="I644" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J644" s="39">
+      <c r="J644" s="33">
         <v>8</v>
       </c>
       <c r="K644" s="28">
@@ -73005,7 +73005,7 @@
       <c r="I645" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J645" s="39">
+      <c r="J645" s="33">
         <v>8</v>
       </c>
       <c r="K645" s="28">
@@ -73067,7 +73067,7 @@
       <c r="I646" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J646" s="39">
+      <c r="J646" s="33">
         <v>8</v>
       </c>
       <c r="K646" s="28">
@@ -73129,7 +73129,7 @@
       <c r="I647" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J647" s="39">
+      <c r="J647" s="33">
         <v>8</v>
       </c>
       <c r="K647" s="28">
@@ -73191,7 +73191,7 @@
       <c r="I648" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J648" s="39">
+      <c r="J648" s="33">
         <v>8</v>
       </c>
       <c r="K648" s="28">
@@ -73253,7 +73253,7 @@
       <c r="I649" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J649" s="39">
+      <c r="J649" s="33">
         <v>8</v>
       </c>
       <c r="K649" s="28">
@@ -73315,7 +73315,7 @@
       <c r="I650" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J650" s="39">
+      <c r="J650" s="33">
         <v>8</v>
       </c>
       <c r="K650" s="28">
@@ -73377,7 +73377,7 @@
       <c r="I651" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J651" s="39">
+      <c r="J651" s="33">
         <v>8</v>
       </c>
       <c r="K651" s="28">
@@ -73439,7 +73439,7 @@
       <c r="I652" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J652" s="39">
+      <c r="J652" s="33">
         <v>8</v>
       </c>
       <c r="K652" s="28">
@@ -73501,7 +73501,7 @@
       <c r="I653" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J653" s="39">
+      <c r="J653" s="33">
         <v>9</v>
       </c>
       <c r="K653" s="28">
@@ -73563,7 +73563,7 @@
       <c r="I654" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J654" s="39">
+      <c r="J654" s="33">
         <v>9</v>
       </c>
       <c r="K654" s="28">
@@ -73625,7 +73625,7 @@
       <c r="I655" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J655" s="39">
+      <c r="J655" s="33">
         <v>10</v>
       </c>
       <c r="K655" s="28">
@@ -73687,7 +73687,7 @@
       <c r="I656" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J656" s="39">
+      <c r="J656" s="33">
         <v>10</v>
       </c>
       <c r="K656" s="28">
@@ -73749,7 +73749,7 @@
       <c r="I657" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J657" s="39">
+      <c r="J657" s="33">
         <v>11</v>
       </c>
       <c r="K657" s="28">
@@ -73811,7 +73811,7 @@
       <c r="I658" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J658" s="39">
+      <c r="J658" s="33">
         <v>11</v>
       </c>
       <c r="K658" s="28">
@@ -73873,7 +73873,7 @@
       <c r="I659" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J659" s="39">
+      <c r="J659" s="33">
         <v>11</v>
       </c>
       <c r="K659" s="28">
@@ -73935,7 +73935,7 @@
       <c r="I660" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J660" s="39">
+      <c r="J660" s="33">
         <v>11</v>
       </c>
       <c r="K660" s="28">
@@ -73997,7 +73997,7 @@
       <c r="I661" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J661" s="39">
+      <c r="J661" s="33">
         <v>11</v>
       </c>
       <c r="K661" s="28">
@@ -74059,7 +74059,7 @@
       <c r="I662" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J662" s="39">
+      <c r="J662" s="33">
         <v>11</v>
       </c>
       <c r="K662" s="28">
@@ -74121,7 +74121,7 @@
       <c r="I663" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J663" s="39">
+      <c r="J663" s="33">
         <v>11</v>
       </c>
       <c r="K663" s="28">
@@ -74183,7 +74183,7 @@
       <c r="I664" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J664" s="39">
+      <c r="J664" s="33">
         <v>8</v>
       </c>
       <c r="K664" s="28">
@@ -74245,7 +74245,7 @@
       <c r="I665" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J665" s="39">
+      <c r="J665" s="33">
         <v>8</v>
       </c>
       <c r="K665" s="28">
@@ -74307,7 +74307,7 @@
       <c r="I666" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J666" s="39">
+      <c r="J666" s="33">
         <v>9</v>
       </c>
       <c r="K666" s="28">
@@ -74369,7 +74369,7 @@
       <c r="I667" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J667" s="39">
+      <c r="J667" s="33">
         <v>9</v>
       </c>
       <c r="K667" s="28">
@@ -74431,7 +74431,7 @@
       <c r="I668" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J668" s="39">
+      <c r="J668" s="33">
         <v>9</v>
       </c>
       <c r="K668" s="28">
@@ -74493,7 +74493,7 @@
       <c r="I669" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J669" s="39">
+      <c r="J669" s="33">
         <v>9</v>
       </c>
       <c r="K669" s="28">
@@ -74555,7 +74555,7 @@
       <c r="I670" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J670" s="39">
+      <c r="J670" s="33">
         <v>9</v>
       </c>
       <c r="K670" s="28">
@@ -74617,7 +74617,7 @@
       <c r="I671" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J671" s="39">
+      <c r="J671" s="33">
         <v>9</v>
       </c>
       <c r="K671" s="28">
@@ -74679,7 +74679,7 @@
       <c r="I672" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J672" s="39">
+      <c r="J672" s="33">
         <v>9</v>
       </c>
       <c r="K672" s="28">
@@ -74741,7 +74741,7 @@
       <c r="I673" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J673" s="39">
+      <c r="J673" s="33">
         <v>9</v>
       </c>
       <c r="K673" s="28">
@@ -74803,7 +74803,7 @@
       <c r="I674" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J674" s="39">
+      <c r="J674" s="33">
         <v>9</v>
       </c>
       <c r="K674" s="28">
@@ -74865,7 +74865,7 @@
       <c r="I675" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J675" s="39">
+      <c r="J675" s="33">
         <v>9</v>
       </c>
       <c r="K675" s="28">
@@ -74927,7 +74927,7 @@
       <c r="I676" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J676" s="39">
+      <c r="J676" s="33">
         <v>12</v>
       </c>
       <c r="K676" s="28">
@@ -74989,7 +74989,7 @@
       <c r="I677" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J677" s="39">
+      <c r="J677" s="33">
         <v>12</v>
       </c>
       <c r="K677" s="28">
@@ -75051,7 +75051,7 @@
       <c r="I678" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J678" s="39">
+      <c r="J678" s="33">
         <v>12</v>
       </c>
       <c r="K678" s="28">
@@ -75113,7 +75113,7 @@
       <c r="I679" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J679" s="39">
+      <c r="J679" s="33">
         <v>12</v>
       </c>
       <c r="K679" s="28">
@@ -75175,7 +75175,7 @@
       <c r="I680" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J680" s="39">
+      <c r="J680" s="33">
         <v>12</v>
       </c>
       <c r="K680" s="28">
@@ -75237,7 +75237,7 @@
       <c r="I681" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="J681" s="39">
+      <c r="J681" s="33">
         <v>12</v>
       </c>
       <c r="K681" s="28">
@@ -85443,18 +85443,20 @@
       <c r="A812" s="23" t="s">
         <v>3011</v>
       </c>
-      <c r="B812" s="41"/>
-      <c r="C812" s="41" t="s">
+      <c r="B812" s="23" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C812" s="35" t="s">
         <v>3013</v>
       </c>
       <c r="D812" s="23" t="s">
         <v>3012</v>
       </c>
-      <c r="E812" s="41"/>
+      <c r="E812" s="35"/>
       <c r="F812" s="23" t="s">
         <v>3012</v>
       </c>
-      <c r="G812" s="41" t="s">
+      <c r="G812" s="35" t="s">
         <v>3013</v>
       </c>
       <c r="H812" s="23">
@@ -85544,18 +85546,20 @@
       <c r="A813" s="23" t="s">
         <v>3015</v>
       </c>
-      <c r="B813" s="41"/>
-      <c r="C813" s="41" t="s">
+      <c r="B813" s="23" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C813" s="35" t="s">
         <v>3017</v>
       </c>
       <c r="D813" s="23" t="s">
         <v>3016</v>
       </c>
-      <c r="E813" s="41"/>
+      <c r="E813" s="35"/>
       <c r="F813" s="23" t="s">
         <v>3016</v>
       </c>
-      <c r="G813" s="41" t="s">
+      <c r="G813" s="35" t="s">
         <v>3017</v>
       </c>
       <c r="H813" s="23">
@@ -85645,18 +85649,20 @@
       <c r="A814" s="23" t="s">
         <v>3019</v>
       </c>
-      <c r="B814" s="41"/>
-      <c r="C814" s="41" t="s">
+      <c r="B814" s="23" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C814" s="35" t="s">
         <v>3021</v>
       </c>
       <c r="D814" s="23" t="s">
         <v>3020</v>
       </c>
-      <c r="E814" s="41"/>
+      <c r="E814" s="35"/>
       <c r="F814" s="23" t="s">
         <v>3020</v>
       </c>
-      <c r="G814" s="41" t="s">
+      <c r="G814" s="35" t="s">
         <v>3021</v>
       </c>
       <c r="H814" s="23">
@@ -85740,21 +85746,23 @@
       </c>
     </row>
     <row r="815" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A815" s="42" t="s">
+      <c r="A815" s="36" t="s">
         <v>3023</v>
       </c>
-      <c r="B815" s="41"/>
-      <c r="C815" s="41" t="s">
+      <c r="B815" s="36" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C815" s="35" t="s">
         <v>3025</v>
       </c>
       <c r="D815" s="23" t="s">
         <v>3024</v>
       </c>
-      <c r="E815" s="41"/>
+      <c r="E815" s="35"/>
       <c r="F815" s="23" t="s">
         <v>3024</v>
       </c>
-      <c r="G815" s="41" t="s">
+      <c r="G815" s="35" t="s">
         <v>3025</v>
       </c>
       <c r="H815" s="23">
@@ -85837,21 +85845,23 @@
       </c>
     </row>
     <row r="816" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A816" s="42" t="s">
+      <c r="A816" s="36" t="s">
         <v>3027</v>
       </c>
-      <c r="B816" s="41"/>
-      <c r="C816" s="41" t="s">
+      <c r="B816" s="36" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C816" s="35" t="s">
         <v>3029</v>
       </c>
       <c r="D816" s="23" t="s">
         <v>3028</v>
       </c>
-      <c r="E816" s="41"/>
+      <c r="E816" s="35"/>
       <c r="F816" s="23" t="s">
         <v>3028</v>
       </c>
-      <c r="G816" s="41" t="s">
+      <c r="G816" s="35" t="s">
         <v>3029</v>
       </c>
       <c r="H816" s="23">
@@ -85934,21 +85944,23 @@
       </c>
     </row>
     <row r="817" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A817" s="42" t="s">
+      <c r="A817" s="36" t="s">
         <v>3031</v>
       </c>
-      <c r="B817" s="41"/>
-      <c r="C817" s="41" t="s">
+      <c r="B817" s="36" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C817" s="35" t="s">
         <v>3033</v>
       </c>
       <c r="D817" s="23" t="s">
         <v>3032</v>
       </c>
-      <c r="E817" s="41"/>
+      <c r="E817" s="35"/>
       <c r="F817" s="23" t="s">
         <v>3032</v>
       </c>
-      <c r="G817" s="41" t="s">
+      <c r="G817" s="35" t="s">
         <v>3033</v>
       </c>
       <c r="H817" s="23">
@@ -86031,21 +86043,23 @@
       </c>
     </row>
     <row r="818" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A818" s="42" t="s">
+      <c r="A818" s="36" t="s">
         <v>3035</v>
       </c>
-      <c r="B818" s="41"/>
-      <c r="C818" s="41" t="s">
+      <c r="B818" s="36" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C818" s="35" t="s">
         <v>3037</v>
       </c>
       <c r="D818" s="23" t="s">
         <v>3036</v>
       </c>
-      <c r="E818" s="41"/>
+      <c r="E818" s="35"/>
       <c r="F818" s="23" t="s">
         <v>3036</v>
       </c>
-      <c r="G818" s="41" t="s">
+      <c r="G818" s="35" t="s">
         <v>3037</v>
       </c>
       <c r="H818" s="23">
@@ -86128,21 +86142,23 @@
       </c>
     </row>
     <row r="819" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A819" s="42" t="s">
+      <c r="A819" s="36" t="s">
         <v>3039</v>
       </c>
-      <c r="B819" s="41"/>
-      <c r="C819" s="41" t="s">
+      <c r="B819" s="36" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C819" s="35" t="s">
         <v>3041</v>
       </c>
       <c r="D819" s="23" t="s">
         <v>3040</v>
       </c>
-      <c r="E819" s="41"/>
+      <c r="E819" s="35"/>
       <c r="F819" s="23" t="s">
         <v>3040</v>
       </c>
-      <c r="G819" s="41" t="s">
+      <c r="G819" s="35" t="s">
         <v>3041</v>
       </c>
       <c r="H819" s="23">
@@ -86225,21 +86241,23 @@
       </c>
     </row>
     <row r="820" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A820" s="42" t="s">
+      <c r="A820" s="36" t="s">
         <v>3043</v>
       </c>
-      <c r="B820" s="41"/>
-      <c r="C820" s="41" t="s">
+      <c r="B820" s="36" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C820" s="35" t="s">
         <v>3045</v>
       </c>
       <c r="D820" s="23" t="s">
         <v>3044</v>
       </c>
-      <c r="E820" s="41"/>
+      <c r="E820" s="35"/>
       <c r="F820" s="23" t="s">
         <v>3044</v>
       </c>
-      <c r="G820" s="41" t="s">
+      <c r="G820" s="35" t="s">
         <v>3045</v>
       </c>
       <c r="H820" s="23">
@@ -86322,21 +86340,23 @@
       </c>
     </row>
     <row r="821" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A821" s="42" t="s">
+      <c r="A821" s="36" t="s">
         <v>3047</v>
       </c>
-      <c r="B821" s="41"/>
-      <c r="C821" s="41" t="s">
+      <c r="B821" s="36" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C821" s="35" t="s">
         <v>3049</v>
       </c>
       <c r="D821" s="23" t="s">
         <v>3048</v>
       </c>
-      <c r="E821" s="41"/>
+      <c r="E821" s="35"/>
       <c r="F821" s="23" t="s">
         <v>3048</v>
       </c>
-      <c r="G821" s="41" t="s">
+      <c r="G821" s="35" t="s">
         <v>3049</v>
       </c>
       <c r="H821" s="23">
@@ -86419,21 +86439,23 @@
       </c>
     </row>
     <row r="822" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A822" s="42" t="s">
+      <c r="A822" s="36" t="s">
         <v>3051</v>
       </c>
-      <c r="B822" s="41"/>
-      <c r="C822" s="41" t="s">
+      <c r="B822" s="36" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C822" s="35" t="s">
         <v>3053</v>
       </c>
       <c r="D822" s="23" t="s">
         <v>3052</v>
       </c>
-      <c r="E822" s="41"/>
+      <c r="E822" s="35"/>
       <c r="F822" s="23" t="s">
         <v>3052</v>
       </c>
-      <c r="G822" s="41" t="s">
+      <c r="G822" s="35" t="s">
         <v>3053</v>
       </c>
       <c r="H822" s="23">
@@ -86516,21 +86538,23 @@
       </c>
     </row>
     <row r="823" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A823" s="42" t="s">
+      <c r="A823" s="36" t="s">
         <v>3055</v>
       </c>
-      <c r="B823" s="41"/>
-      <c r="C823" s="41" t="s">
+      <c r="B823" s="36" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C823" s="35" t="s">
         <v>3057</v>
       </c>
       <c r="D823" s="23" t="s">
         <v>3056</v>
       </c>
-      <c r="E823" s="41"/>
+      <c r="E823" s="35"/>
       <c r="F823" s="23" t="s">
         <v>3056</v>
       </c>
-      <c r="G823" s="41" t="s">
+      <c r="G823" s="35" t="s">
         <v>3057</v>
       </c>
       <c r="H823" s="23">
@@ -86613,21 +86637,23 @@
       </c>
     </row>
     <row r="824" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A824" s="42" t="s">
+      <c r="A824" s="36" t="s">
         <v>3059</v>
       </c>
-      <c r="B824" s="41"/>
-      <c r="C824" s="41" t="s">
+      <c r="B824" s="36" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C824" s="35" t="s">
         <v>3061</v>
       </c>
       <c r="D824" s="23" t="s">
         <v>3060</v>
       </c>
-      <c r="E824" s="41"/>
+      <c r="E824" s="35"/>
       <c r="F824" s="23" t="s">
         <v>3060</v>
       </c>
-      <c r="G824" s="41" t="s">
+      <c r="G824" s="35" t="s">
         <v>3061</v>
       </c>
       <c r="H824" s="23">
@@ -86710,21 +86736,23 @@
       </c>
     </row>
     <row r="825" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A825" s="42" t="s">
+      <c r="A825" s="36" t="s">
         <v>3063</v>
       </c>
-      <c r="B825" s="41"/>
-      <c r="C825" s="41" t="s">
+      <c r="B825" s="36" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C825" s="35" t="s">
         <v>3065</v>
       </c>
       <c r="D825" s="23" t="s">
         <v>3064</v>
       </c>
-      <c r="E825" s="41"/>
+      <c r="E825" s="35"/>
       <c r="F825" s="23" t="s">
         <v>3064</v>
       </c>
-      <c r="G825" s="41" t="s">
+      <c r="G825" s="35" t="s">
         <v>3065</v>
       </c>
       <c r="H825" s="23">
@@ -86807,21 +86835,23 @@
       </c>
     </row>
     <row r="826" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A826" s="42" t="s">
+      <c r="A826" s="36" t="s">
         <v>3067</v>
       </c>
-      <c r="B826" s="41"/>
-      <c r="C826" s="41" t="s">
+      <c r="B826" s="36" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C826" s="35" t="s">
         <v>3069</v>
       </c>
       <c r="D826" s="23" t="s">
         <v>3068</v>
       </c>
-      <c r="E826" s="41"/>
+      <c r="E826" s="35"/>
       <c r="F826" s="23" t="s">
         <v>3068</v>
       </c>
-      <c r="G826" s="41" t="s">
+      <c r="G826" s="35" t="s">
         <v>3069</v>
       </c>
       <c r="H826" s="23">
@@ -86904,21 +86934,23 @@
       </c>
     </row>
     <row r="827" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A827" s="42" t="s">
+      <c r="A827" s="36" t="s">
         <v>3071</v>
       </c>
-      <c r="B827" s="41"/>
-      <c r="C827" s="41" t="s">
+      <c r="B827" s="36" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C827" s="35" t="s">
         <v>3073</v>
       </c>
       <c r="D827" s="23" t="s">
         <v>3072</v>
       </c>
-      <c r="E827" s="41"/>
+      <c r="E827" s="35"/>
       <c r="F827" s="23" t="s">
         <v>3072</v>
       </c>
-      <c r="G827" s="41" t="s">
+      <c r="G827" s="35" t="s">
         <v>3073</v>
       </c>
       <c r="H827" s="23">
@@ -87001,21 +87033,23 @@
       </c>
     </row>
     <row r="828" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A828" s="42" t="s">
+      <c r="A828" s="36" t="s">
         <v>3075</v>
       </c>
-      <c r="B828" s="41"/>
-      <c r="C828" s="41" t="s">
+      <c r="B828" s="36" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C828" s="35" t="s">
         <v>3077</v>
       </c>
       <c r="D828" s="23" t="s">
         <v>3076</v>
       </c>
-      <c r="E828" s="41"/>
+      <c r="E828" s="35"/>
       <c r="F828" s="23" t="s">
         <v>3076</v>
       </c>
-      <c r="G828" s="41" t="s">
+      <c r="G828" s="35" t="s">
         <v>3077</v>
       </c>
       <c r="H828" s="23">
@@ -87098,21 +87132,23 @@
       </c>
     </row>
     <row r="829" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A829" s="42" t="s">
+      <c r="A829" s="36" t="s">
         <v>3079</v>
       </c>
-      <c r="B829" s="41"/>
-      <c r="C829" s="41" t="s">
+      <c r="B829" s="36" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C829" s="35" t="s">
         <v>3081</v>
       </c>
       <c r="D829" s="23" t="s">
         <v>3080</v>
       </c>
-      <c r="E829" s="41"/>
+      <c r="E829" s="35"/>
       <c r="F829" s="23" t="s">
         <v>3080</v>
       </c>
-      <c r="G829" s="41" t="s">
+      <c r="G829" s="35" t="s">
         <v>3081</v>
       </c>
       <c r="H829" s="23">
@@ -87195,21 +87231,23 @@
       </c>
     </row>
     <row r="830" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A830" s="42" t="s">
+      <c r="A830" s="36" t="s">
         <v>3083</v>
       </c>
-      <c r="B830" s="41"/>
-      <c r="C830" s="41" t="s">
+      <c r="B830" s="36" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C830" s="35" t="s">
         <v>3085</v>
       </c>
       <c r="D830" s="23" t="s">
         <v>3084</v>
       </c>
-      <c r="E830" s="41"/>
+      <c r="E830" s="35"/>
       <c r="F830" s="23" t="s">
         <v>3084</v>
       </c>
-      <c r="G830" s="41" t="s">
+      <c r="G830" s="35" t="s">
         <v>3085</v>
       </c>
       <c r="H830" s="23">
@@ -87292,21 +87330,23 @@
       </c>
     </row>
     <row r="831" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A831" s="42" t="s">
+      <c r="A831" s="36" t="s">
         <v>3087</v>
       </c>
-      <c r="B831" s="41"/>
-      <c r="C831" s="41" t="s">
+      <c r="B831" s="36" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C831" s="35" t="s">
         <v>3089</v>
       </c>
       <c r="D831" s="23" t="s">
         <v>3088</v>
       </c>
-      <c r="E831" s="41"/>
+      <c r="E831" s="35"/>
       <c r="F831" s="23" t="s">
         <v>3088</v>
       </c>
-      <c r="G831" s="41" t="s">
+      <c r="G831" s="35" t="s">
         <v>3089</v>
       </c>
       <c r="H831" s="23">
@@ -87389,21 +87429,23 @@
       </c>
     </row>
     <row r="832" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A832" s="42" t="s">
+      <c r="A832" s="36" t="s">
         <v>3091</v>
       </c>
-      <c r="B832" s="41"/>
-      <c r="C832" s="41" t="s">
+      <c r="B832" s="36" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C832" s="35" t="s">
         <v>3093</v>
       </c>
       <c r="D832" s="23" t="s">
         <v>3092</v>
       </c>
-      <c r="E832" s="41"/>
+      <c r="E832" s="35"/>
       <c r="F832" s="23" t="s">
         <v>3092</v>
       </c>
-      <c r="G832" s="41" t="s">
+      <c r="G832" s="35" t="s">
         <v>3093</v>
       </c>
       <c r="H832" s="23">
@@ -87486,21 +87528,23 @@
       </c>
     </row>
     <row r="833" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A833" s="42" t="s">
+      <c r="A833" s="36" t="s">
         <v>3095</v>
       </c>
-      <c r="B833" s="41"/>
-      <c r="C833" s="41" t="s">
+      <c r="B833" s="36" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C833" s="35" t="s">
         <v>3097</v>
       </c>
       <c r="D833" s="23" t="s">
         <v>3096</v>
       </c>
-      <c r="E833" s="41"/>
+      <c r="E833" s="35"/>
       <c r="F833" s="23" t="s">
         <v>3096</v>
       </c>
-      <c r="G833" s="41" t="s">
+      <c r="G833" s="35" t="s">
         <v>3097</v>
       </c>
       <c r="H833" s="23">
@@ -87583,21 +87627,23 @@
       </c>
     </row>
     <row r="834" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A834" s="42" t="s">
+      <c r="A834" s="36" t="s">
         <v>3099</v>
       </c>
-      <c r="B834" s="41"/>
-      <c r="C834" s="41" t="s">
+      <c r="B834" s="36" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C834" s="35" t="s">
         <v>3101</v>
       </c>
       <c r="D834" s="23" t="s">
         <v>3100</v>
       </c>
-      <c r="E834" s="41"/>
+      <c r="E834" s="35"/>
       <c r="F834" s="23" t="s">
         <v>3100</v>
       </c>
-      <c r="G834" s="41" t="s">
+      <c r="G834" s="35" t="s">
         <v>3101</v>
       </c>
       <c r="H834" s="23">
@@ -87683,7 +87729,9 @@
       <c r="A835" s="2" t="s">
         <v>3103</v>
       </c>
-      <c r="B835" s="21"/>
+      <c r="B835" s="2" t="s">
+        <v>3103</v>
+      </c>
       <c r="C835" s="21" t="s">
         <v>3105</v>
       </c>
@@ -87816,7 +87864,7 @@
   <conditionalFormatting sqref="D814:D1048576 D1:D5">
     <cfRule type="duplicateValues" dxfId="8" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F5 D489:D543 F489:F543 D545:D813 F836:F1048576 F545:F813">
+  <conditionalFormatting sqref="F1:F5 D489:D543 F489:F543 D545:D813 F545:F813 F836:F1048576">
     <cfRule type="expression" dxfId="7" priority="6">
       <formula>COUNTIF(D:D, D1) &gt; 1</formula>
     </cfRule>
@@ -87827,24 +87875,24 @@
   <conditionalFormatting sqref="F489:F811">
     <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F812:F813">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F814:F835">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F836:F1048576 F1:F5">
-    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>COUNTIF(#REF!,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M492">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>COUNTIF(F:F, #REF!) &gt; 1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F812:F813">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F814:F835">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tesla_data.xlsx
+++ b/tesla_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E8D66-9E5A-4EF2-AC30-10312842C366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE9F54F-6A5A-493A-9592-346C794C890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17625" yWindow="1350" windowWidth="16440" windowHeight="15195" xr2:uid="{885A433C-E723-4E44-ACD2-B01F549B13D8}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{885A433C-E723-4E44-ACD2-B01F549B13D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6739" uniqueCount="3107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6739" uniqueCount="3128">
   <si>
     <t>CASENR</t>
   </si>
@@ -9791,6 +9791,69 @@
   </si>
   <si>
     <t>비가 오는 날씨에 젖은 도로에서 오토파일럿 기능이 차로 중간의 색깔 유도선을 오인식하여 불안정한 조향을 하게 되었고, 차체가 흔들려 위험한 상황</t>
+  </si>
+  <si>
+    <t>2020-07-07_07-30-18-front</t>
+  </si>
+  <si>
+    <t>2020-05-18_21-26-42-front</t>
+  </si>
+  <si>
+    <t>2020-03-12_17-43-49-front</t>
+  </si>
+  <si>
+    <t>2020-03-13_07-43-04-front</t>
+  </si>
+  <si>
+    <t>2020-03-18_07-31-52-front</t>
+  </si>
+  <si>
+    <t>2020-03-21_16-17-49-front</t>
+  </si>
+  <si>
+    <t>2020-03-25_07-31-04-front</t>
+  </si>
+  <si>
+    <t>2020-03-28_18-19-11-front</t>
+  </si>
+  <si>
+    <t>2020-04-07_20-03-07-front</t>
+  </si>
+  <si>
+    <t>2020-04-09_07-02-40-front</t>
+  </si>
+  <si>
+    <t>2020-04-09_07-12-15-front</t>
+  </si>
+  <si>
+    <t>2020-04-11_17-02-01-front</t>
+  </si>
+  <si>
+    <t>2020-04-16_19-17-23-front</t>
+  </si>
+  <si>
+    <t>2020-04-17_19-11-36-front</t>
+  </si>
+  <si>
+    <t>2020-04-21_20-03-23-front</t>
+  </si>
+  <si>
+    <t>2020-04-24_19-17-27-front</t>
+  </si>
+  <si>
+    <t>2020-04-27_19-17-11-front</t>
+  </si>
+  <si>
+    <t>2020-05-02_09-19-55-front</t>
+  </si>
+  <si>
+    <t>2020-05-06_17-11-58-front</t>
+  </si>
+  <si>
+    <t>2020-05-13_07-11-32-front</t>
+  </si>
+  <si>
+    <t>2020-05-18_19-47-41-front</t>
   </si>
 </sst>
 </file>
@@ -10641,7 +10704,7 @@
   <dimension ref="A1:EG835"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A800" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A810" sqref="A810"/>
+      <selection activeCell="D818" sqref="D818"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -85443,11 +85506,11 @@
       <c r="A812" s="23" t="s">
         <v>3011</v>
       </c>
-      <c r="B812" s="23" t="s">
+      <c r="B812" s="35" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C812" s="23" t="s">
         <v>3011</v>
-      </c>
-      <c r="C812" s="35" t="s">
-        <v>3013</v>
       </c>
       <c r="D812" s="23" t="s">
         <v>3012</v>
@@ -85546,11 +85609,11 @@
       <c r="A813" s="23" t="s">
         <v>3015</v>
       </c>
-      <c r="B813" s="23" t="s">
-        <v>3015</v>
-      </c>
-      <c r="C813" s="35" t="s">
+      <c r="B813" s="35" t="s">
         <v>3017</v>
+      </c>
+      <c r="C813" t="s">
+        <v>3107</v>
       </c>
       <c r="D813" s="23" t="s">
         <v>3016</v>
@@ -85649,11 +85712,11 @@
       <c r="A814" s="23" t="s">
         <v>3019</v>
       </c>
-      <c r="B814" s="23" t="s">
+      <c r="B814" s="35" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C814" t="s">
         <v>3019</v>
-      </c>
-      <c r="C814" s="35" t="s">
-        <v>3021</v>
       </c>
       <c r="D814" s="23" t="s">
         <v>3020</v>
@@ -85749,11 +85812,11 @@
       <c r="A815" s="36" t="s">
         <v>3023</v>
       </c>
-      <c r="B815" s="36" t="s">
+      <c r="B815" s="35" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C815" t="s">
         <v>3023</v>
-      </c>
-      <c r="C815" s="35" t="s">
-        <v>3025</v>
       </c>
       <c r="D815" s="23" t="s">
         <v>3024</v>
@@ -85848,11 +85911,11 @@
       <c r="A816" s="36" t="s">
         <v>3027</v>
       </c>
-      <c r="B816" s="36" t="s">
-        <v>3027</v>
-      </c>
-      <c r="C816" s="35" t="s">
+      <c r="B816" s="35" t="s">
         <v>3029</v>
+      </c>
+      <c r="C816" t="s">
+        <v>3108</v>
       </c>
       <c r="D816" s="23" t="s">
         <v>3028</v>
@@ -85947,11 +86010,11 @@
       <c r="A817" s="36" t="s">
         <v>3031</v>
       </c>
-      <c r="B817" s="36" t="s">
-        <v>3031</v>
-      </c>
-      <c r="C817" s="35" t="s">
+      <c r="B817" s="35" t="s">
         <v>3033</v>
+      </c>
+      <c r="C817" t="s">
+        <v>3109</v>
       </c>
       <c r="D817" s="23" t="s">
         <v>3032</v>
@@ -86046,11 +86109,11 @@
       <c r="A818" s="36" t="s">
         <v>3035</v>
       </c>
-      <c r="B818" s="36" t="s">
-        <v>3035</v>
-      </c>
-      <c r="C818" s="35" t="s">
+      <c r="B818" s="35" t="s">
         <v>3037</v>
+      </c>
+      <c r="C818" t="s">
+        <v>3110</v>
       </c>
       <c r="D818" s="23" t="s">
         <v>3036</v>
@@ -86145,11 +86208,11 @@
       <c r="A819" s="36" t="s">
         <v>3039</v>
       </c>
-      <c r="B819" s="36" t="s">
-        <v>3039</v>
-      </c>
-      <c r="C819" s="35" t="s">
+      <c r="B819" s="35" t="s">
         <v>3041</v>
+      </c>
+      <c r="C819" t="s">
+        <v>3111</v>
       </c>
       <c r="D819" s="23" t="s">
         <v>3040</v>
@@ -86244,11 +86307,11 @@
       <c r="A820" s="36" t="s">
         <v>3043</v>
       </c>
-      <c r="B820" s="36" t="s">
-        <v>3043</v>
-      </c>
-      <c r="C820" s="35" t="s">
+      <c r="B820" s="35" t="s">
         <v>3045</v>
+      </c>
+      <c r="C820" t="s">
+        <v>3112</v>
       </c>
       <c r="D820" s="23" t="s">
         <v>3044</v>
@@ -86343,11 +86406,11 @@
       <c r="A821" s="36" t="s">
         <v>3047</v>
       </c>
-      <c r="B821" s="36" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C821" s="35" t="s">
+      <c r="B821" s="35" t="s">
         <v>3049</v>
+      </c>
+      <c r="C821" t="s">
+        <v>3113</v>
       </c>
       <c r="D821" s="23" t="s">
         <v>3048</v>
@@ -86442,11 +86505,11 @@
       <c r="A822" s="36" t="s">
         <v>3051</v>
       </c>
-      <c r="B822" s="36" t="s">
-        <v>3051</v>
-      </c>
-      <c r="C822" s="35" t="s">
+      <c r="B822" s="35" t="s">
         <v>3053</v>
+      </c>
+      <c r="C822" t="s">
+        <v>3114</v>
       </c>
       <c r="D822" s="23" t="s">
         <v>3052</v>
@@ -86541,11 +86604,11 @@
       <c r="A823" s="36" t="s">
         <v>3055</v>
       </c>
-      <c r="B823" s="36" t="s">
-        <v>3055</v>
-      </c>
-      <c r="C823" s="35" t="s">
+      <c r="B823" s="35" t="s">
         <v>3057</v>
+      </c>
+      <c r="C823" t="s">
+        <v>3115</v>
       </c>
       <c r="D823" s="23" t="s">
         <v>3056</v>
@@ -86640,11 +86703,11 @@
       <c r="A824" s="36" t="s">
         <v>3059</v>
       </c>
-      <c r="B824" s="36" t="s">
-        <v>3059</v>
-      </c>
-      <c r="C824" s="35" t="s">
+      <c r="B824" s="35" t="s">
         <v>3061</v>
+      </c>
+      <c r="C824" t="s">
+        <v>3116</v>
       </c>
       <c r="D824" s="23" t="s">
         <v>3060</v>
@@ -86739,11 +86802,11 @@
       <c r="A825" s="36" t="s">
         <v>3063</v>
       </c>
-      <c r="B825" s="36" t="s">
-        <v>3063</v>
-      </c>
-      <c r="C825" s="35" t="s">
+      <c r="B825" s="35" t="s">
         <v>3065</v>
+      </c>
+      <c r="C825" t="s">
+        <v>3117</v>
       </c>
       <c r="D825" s="23" t="s">
         <v>3064</v>
@@ -86838,11 +86901,11 @@
       <c r="A826" s="36" t="s">
         <v>3067</v>
       </c>
-      <c r="B826" s="36" t="s">
-        <v>3067</v>
-      </c>
-      <c r="C826" s="35" t="s">
+      <c r="B826" s="35" t="s">
         <v>3069</v>
+      </c>
+      <c r="C826" t="s">
+        <v>3118</v>
       </c>
       <c r="D826" s="23" t="s">
         <v>3068</v>
@@ -86937,11 +87000,11 @@
       <c r="A827" s="36" t="s">
         <v>3071</v>
       </c>
-      <c r="B827" s="36" t="s">
-        <v>3071</v>
-      </c>
-      <c r="C827" s="35" t="s">
+      <c r="B827" s="35" t="s">
         <v>3073</v>
+      </c>
+      <c r="C827" t="s">
+        <v>3119</v>
       </c>
       <c r="D827" s="23" t="s">
         <v>3072</v>
@@ -87036,11 +87099,11 @@
       <c r="A828" s="36" t="s">
         <v>3075</v>
       </c>
-      <c r="B828" s="36" t="s">
-        <v>3075</v>
-      </c>
-      <c r="C828" s="35" t="s">
+      <c r="B828" s="35" t="s">
         <v>3077</v>
+      </c>
+      <c r="C828" t="s">
+        <v>3120</v>
       </c>
       <c r="D828" s="23" t="s">
         <v>3076</v>
@@ -87135,11 +87198,11 @@
       <c r="A829" s="36" t="s">
         <v>3079</v>
       </c>
-      <c r="B829" s="36" t="s">
-        <v>3079</v>
-      </c>
-      <c r="C829" s="35" t="s">
+      <c r="B829" s="35" t="s">
         <v>3081</v>
+      </c>
+      <c r="C829" t="s">
+        <v>3121</v>
       </c>
       <c r="D829" s="23" t="s">
         <v>3080</v>
@@ -87234,11 +87297,11 @@
       <c r="A830" s="36" t="s">
         <v>3083</v>
       </c>
-      <c r="B830" s="36" t="s">
-        <v>3083</v>
-      </c>
-      <c r="C830" s="35" t="s">
+      <c r="B830" s="35" t="s">
         <v>3085</v>
+      </c>
+      <c r="C830" t="s">
+        <v>3122</v>
       </c>
       <c r="D830" s="23" t="s">
         <v>3084</v>
@@ -87333,11 +87396,11 @@
       <c r="A831" s="36" t="s">
         <v>3087</v>
       </c>
-      <c r="B831" s="36" t="s">
-        <v>3087</v>
-      </c>
-      <c r="C831" s="35" t="s">
+      <c r="B831" s="35" t="s">
         <v>3089</v>
+      </c>
+      <c r="C831" t="s">
+        <v>3123</v>
       </c>
       <c r="D831" s="23" t="s">
         <v>3088</v>
@@ -87432,11 +87495,11 @@
       <c r="A832" s="36" t="s">
         <v>3091</v>
       </c>
-      <c r="B832" s="36" t="s">
-        <v>3091</v>
-      </c>
-      <c r="C832" s="35" t="s">
+      <c r="B832" s="35" t="s">
         <v>3093</v>
+      </c>
+      <c r="C832" t="s">
+        <v>3124</v>
       </c>
       <c r="D832" s="23" t="s">
         <v>3092</v>
@@ -87531,11 +87594,11 @@
       <c r="A833" s="36" t="s">
         <v>3095</v>
       </c>
-      <c r="B833" s="36" t="s">
-        <v>3095</v>
-      </c>
-      <c r="C833" s="35" t="s">
+      <c r="B833" s="35" t="s">
         <v>3097</v>
+      </c>
+      <c r="C833" t="s">
+        <v>3125</v>
       </c>
       <c r="D833" s="23" t="s">
         <v>3096</v>
@@ -87630,11 +87693,11 @@
       <c r="A834" s="36" t="s">
         <v>3099</v>
       </c>
-      <c r="B834" s="36" t="s">
-        <v>3099</v>
-      </c>
-      <c r="C834" s="35" t="s">
+      <c r="B834" s="35" t="s">
         <v>3101</v>
+      </c>
+      <c r="C834" t="s">
+        <v>3126</v>
       </c>
       <c r="D834" s="23" t="s">
         <v>3100</v>
@@ -87729,11 +87792,11 @@
       <c r="A835" s="2" t="s">
         <v>3103</v>
       </c>
-      <c r="B835" s="2" t="s">
-        <v>3103</v>
-      </c>
-      <c r="C835" s="21" t="s">
+      <c r="B835" s="21" t="s">
         <v>3105</v>
+      </c>
+      <c r="C835" t="s">
+        <v>3127</v>
       </c>
       <c r="D835" s="2" t="s">
         <v>3104</v>

--- a/tesla_data.xlsx
+++ b/tesla_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE9F54F-6A5A-493A-9592-346C794C890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA76775-835C-4AFD-9FB3-23A2BE8EAF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{885A433C-E723-4E44-ACD2-B01F549B13D8}"/>
+    <workbookView xWindow="15540" yWindow="2805" windowWidth="16440" windowHeight="15195" xr2:uid="{885A433C-E723-4E44-ACD2-B01F549B13D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6739" uniqueCount="3128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6761" uniqueCount="3150">
   <si>
     <t>CASENR</t>
   </si>
@@ -9855,6 +9855,72 @@
   <si>
     <t>2020-05-18_19-47-41-front</t>
   </si>
+  <si>
+    <t>중부대로, 마평동, 동성그린빌라, 처인구, 용인시, 경기도, 17153, 대한민국</t>
+  </si>
+  <si>
+    <t>판교창조경제밸리, 815, 대왕판교로, 시흥동, 수정구, 성남시, 경기도, 13449, 대한민국</t>
+  </si>
+  <si>
+    <t>능동로, 자양동, 자양3동, 광진구, 서울, 05090, 대한민국</t>
+  </si>
+  <si>
+    <t>수도권제2순환고속도로, 처인구, 용인시, 경기도, 17018, 대한민국</t>
+  </si>
+  <si>
+    <t>골드프라자, 283, 동백중앙로, 동백동, 기흥구, 용인시, 경기도, 17006, 대한민국</t>
+  </si>
+  <si>
+    <t>중부대로, 기흥구, 용인시, 경기도, 17095, 대한민국</t>
+  </si>
+  <si>
+    <t>시흥동, 수정구, 성남시, 경기도, 13445, 대한민국</t>
+  </si>
+  <si>
+    <t>서판교로66번길, 판교동, 판교, 분당구, 성남시, 경기도, 13479, 대한민국</t>
+  </si>
+  <si>
+    <t>백옥대로, 남동, 처인구, 용인시, 경기도, 17140, 대한민국</t>
+  </si>
+  <si>
+    <t>경부고속도로, 신봉동, 수지구, 용인시, 경기도, 16865, 대한민국</t>
+  </si>
+  <si>
+    <t>용인서울고속도로, 신봉동, 수지구, 용인시, 경기도, 16807, 대한민국</t>
+  </si>
+  <si>
+    <t>백자로, 처인구, 용인시, 경기도, 17128, 대한민국</t>
+  </si>
+  <si>
+    <t>백옥대로, 김량장동, 동성그린빌라, 처인구, 용인시, 경기도, 17148, 대한민국</t>
+  </si>
+  <si>
+    <t>회안대로, 송정동, 남한산성면, 광주시, 경기도, 12738, 대한민국</t>
+  </si>
+  <si>
+    <t>성남대로, 성남동, 중원구, 성남시, 경기도, 13385, 대한민국</t>
+  </si>
+  <si>
+    <t>1290, 성남대로, 수진동, 수정구, 성남시, 경기도, 13307, 대한민국</t>
+  </si>
+  <si>
+    <t>백옥대로652번길, 처인구, 용인시, 경기도, 17128, 대한민국</t>
+  </si>
+  <si>
+    <t>리캡라이브3040, 1158, 성남대로, 성남동, 중원구, 성남시, 경기도, 13376, 대한민국</t>
+  </si>
+  <si>
+    <t>88빌딩, 1149, 성남대로, 성남동, 중원구, 성남시, 경기도, 13376, 대한민국</t>
+  </si>
+  <si>
+    <t>1267, 성남대로, 수진동, 수정구, 성남시, 경기도, 13110, 대한민국</t>
+  </si>
+  <si>
+    <t>유림동 행정복지센터, 1315, 백옥대로, 김량장동, 동성그린빌라, 처인구, 용인시, 경기도, 17043, 대한민국</t>
+  </si>
+  <si>
+    <t>한남정맥, 기흥구, 용인시, 경기도, 16921, 대한민국</t>
+  </si>
 </sst>
 </file>
 
@@ -9863,7 +9929,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9950,6 +10016,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10089,12 +10162,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10230,9 +10304,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{F8452D03-5898-4A31-9CFD-2F2F120D5A05}"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -10703,8 +10779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E657F5FC-5AAE-4BD7-A16D-54B7454E4108}">
   <dimension ref="A1:EG835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A800" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D818" sqref="D818"/>
+    <sheetView tabSelected="1" topLeftCell="L806" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P825" sqref="P825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -85601,8 +85677,8 @@
       <c r="AG812" s="23">
         <v>4</v>
       </c>
-      <c r="AJ812" s="28" t="s">
-        <v>723</v>
+      <c r="AJ812" s="43" t="s">
+        <v>3128</v>
       </c>
     </row>
     <row r="813" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.3">
@@ -85704,8 +85780,8 @@
       <c r="AG813" s="23">
         <v>4</v>
       </c>
-      <c r="AJ813" s="28" t="s">
-        <v>653</v>
+      <c r="AJ813" s="43" t="s">
+        <v>3129</v>
       </c>
     </row>
     <row r="814" spans="1:36" x14ac:dyDescent="0.3">
@@ -85807,6 +85883,9 @@
       <c r="AG814" s="23">
         <v>4</v>
       </c>
+      <c r="AJ814" s="43" t="s">
+        <v>3130</v>
+      </c>
     </row>
     <row r="815" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A815" s="36" t="s">
@@ -85906,6 +85985,9 @@
       <c r="AG815" s="2">
         <v>4</v>
       </c>
+      <c r="AJ815" s="43" t="s">
+        <v>3131</v>
+      </c>
     </row>
     <row r="816" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A816" s="36" t="s">
@@ -86005,8 +86087,11 @@
       <c r="AG816" s="2">
         <v>4</v>
       </c>
+      <c r="AJ816" s="43" t="s">
+        <v>3132</v>
+      </c>
     </row>
-    <row r="817" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A817" s="36" t="s">
         <v>3031</v>
       </c>
@@ -86104,8 +86189,11 @@
       <c r="AG817" s="2">
         <v>4</v>
       </c>
+      <c r="AJ817" s="43" t="s">
+        <v>3133</v>
+      </c>
     </row>
-    <row r="818" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A818" s="36" t="s">
         <v>3035</v>
       </c>
@@ -86203,8 +86291,11 @@
       <c r="AG818" s="2">
         <v>4</v>
       </c>
+      <c r="AJ818" s="43" t="s">
+        <v>3134</v>
+      </c>
     </row>
-    <row r="819" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A819" s="36" t="s">
         <v>3039</v>
       </c>
@@ -86302,8 +86393,11 @@
       <c r="AG819" s="2">
         <v>4</v>
       </c>
+      <c r="AJ819" s="43" t="s">
+        <v>3135</v>
+      </c>
     </row>
-    <row r="820" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A820" s="36" t="s">
         <v>3043</v>
       </c>
@@ -86401,8 +86495,11 @@
       <c r="AG820" s="2">
         <v>4</v>
       </c>
+      <c r="AJ820" s="43" t="s">
+        <v>3136</v>
+      </c>
     </row>
-    <row r="821" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A821" s="36" t="s">
         <v>3047</v>
       </c>
@@ -86500,8 +86597,11 @@
       <c r="AG821" s="2">
         <v>4</v>
       </c>
+      <c r="AJ821" s="43" t="s">
+        <v>3137</v>
+      </c>
     </row>
-    <row r="822" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A822" s="36" t="s">
         <v>3051</v>
       </c>
@@ -86599,8 +86699,11 @@
       <c r="AG822" s="2">
         <v>4</v>
       </c>
+      <c r="AJ822" s="43" t="s">
+        <v>3138</v>
+      </c>
     </row>
-    <row r="823" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A823" s="36" t="s">
         <v>3055</v>
       </c>
@@ -86698,8 +86801,11 @@
       <c r="AG823" s="2">
         <v>4</v>
       </c>
+      <c r="AJ823" s="43" t="s">
+        <v>3136</v>
+      </c>
     </row>
-    <row r="824" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A824" s="36" t="s">
         <v>3059</v>
       </c>
@@ -86797,8 +86903,11 @@
       <c r="AG824" s="2">
         <v>4</v>
       </c>
+      <c r="AJ824" s="43" t="s">
+        <v>3139</v>
+      </c>
     </row>
-    <row r="825" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A825" s="36" t="s">
         <v>3063</v>
       </c>
@@ -86896,8 +87005,11 @@
       <c r="AG825" s="2">
         <v>4</v>
       </c>
+      <c r="AJ825" s="43" t="s">
+        <v>3140</v>
+      </c>
     </row>
-    <row r="826" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A826" s="36" t="s">
         <v>3067</v>
       </c>
@@ -86995,8 +87107,11 @@
       <c r="AG826" s="2">
         <v>4</v>
       </c>
+      <c r="AJ826" s="43" t="s">
+        <v>3141</v>
+      </c>
     </row>
-    <row r="827" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A827" s="36" t="s">
         <v>3071</v>
       </c>
@@ -87094,8 +87209,11 @@
       <c r="AG827" s="2">
         <v>4</v>
       </c>
+      <c r="AJ827" s="43" t="s">
+        <v>3142</v>
+      </c>
     </row>
-    <row r="828" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A828" s="36" t="s">
         <v>3075</v>
       </c>
@@ -87193,8 +87311,11 @@
       <c r="AG828" s="2">
         <v>4</v>
       </c>
+      <c r="AJ828" s="43" t="s">
+        <v>3143</v>
+      </c>
     </row>
-    <row r="829" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A829" s="36" t="s">
         <v>3079</v>
       </c>
@@ -87292,8 +87413,11 @@
       <c r="AG829" s="2">
         <v>4</v>
       </c>
+      <c r="AJ829" s="43" t="s">
+        <v>3144</v>
+      </c>
     </row>
-    <row r="830" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A830" s="36" t="s">
         <v>3083</v>
       </c>
@@ -87391,8 +87515,11 @@
       <c r="AG830" s="2">
         <v>4</v>
       </c>
+      <c r="AJ830" s="43" t="s">
+        <v>3145</v>
+      </c>
     </row>
-    <row r="831" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A831" s="36" t="s">
         <v>3087</v>
       </c>
@@ -87490,8 +87617,11 @@
       <c r="AG831" s="2">
         <v>4</v>
       </c>
+      <c r="AJ831" s="43" t="s">
+        <v>3146</v>
+      </c>
     </row>
-    <row r="832" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A832" s="36" t="s">
         <v>3091</v>
       </c>
@@ -87589,8 +87719,11 @@
       <c r="AG832" s="2">
         <v>4</v>
       </c>
+      <c r="AJ832" s="43" t="s">
+        <v>692</v>
+      </c>
     </row>
-    <row r="833" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A833" s="36" t="s">
         <v>3095</v>
       </c>
@@ -87688,8 +87821,11 @@
       <c r="AG833" s="2">
         <v>4</v>
       </c>
+      <c r="AJ833" s="43" t="s">
+        <v>3147</v>
+      </c>
     </row>
-    <row r="834" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A834" s="36" t="s">
         <v>3099</v>
       </c>
@@ -87787,8 +87923,11 @@
       <c r="AG834" s="2">
         <v>4</v>
       </c>
+      <c r="AJ834" s="43" t="s">
+        <v>3148</v>
+      </c>
     </row>
-    <row r="835" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A835" s="2" t="s">
         <v>3103</v>
       </c>
@@ -87883,6 +88022,9 @@
       </c>
       <c r="AG835" s="12">
         <v>4</v>
+      </c>
+      <c r="AJ835" s="43" t="s">
+        <v>3149</v>
       </c>
     </row>
   </sheetData>
